--- a/_documents/요구사항추적표(KPC-SCC-D02).xlsx
+++ b/_documents/요구사항추적표(KPC-SCC-D02).xlsx
@@ -33,7 +33,7 @@
     <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. 요구사항추적표_기능'!$A$6:$I$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. 요구사항추적표_기능'!$A$6:$I$26</definedName>
     <definedName name="aaaa" localSheetId="2">'[1]응용시스템(참고)'!#REF!</definedName>
     <definedName name="aaaa">'[2]응용시스템(참고)'!#REF!</definedName>
     <definedName name="aaData">#REF!</definedName>
@@ -105,7 +105,6 @@
     <definedName name="테스트단계1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="125">
   <si>
     <t>최초 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,10 +323,6 @@
   </si>
   <si>
     <t>REQ-SFR-004-03</t>
-  </si>
-  <si>
-    <t>REQ-SFR-007-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>계정 관리</t>
@@ -477,12 +472,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>○ 비회원은 글 열람만 가능하게 권한 제한
-    - REQ-SFR-008-01 의 게시글, 댓글 작성 불가
-    - REQ-SFR-003-02 기능 불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로그램목록
 (KPC-SCC-D01)</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -563,18 +552,99 @@
     <t>REQ-SFR-007-03</t>
   </si>
   <si>
-    <t>댓글, 대댓글</t>
-  </si>
-  <si>
-    <t>게시글 작성</t>
+    <t>수용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>첨부파일 기능</t>
+    <t>수용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>REQ-SFR-001-05</t>
+  </si>
+  <si>
+    <t>계정 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP600001</t>
+  </si>
+  <si>
+    <t>SCCUP600002</t>
+  </si>
+  <si>
+    <t>SCCUP600003</t>
+  </si>
+  <si>
+    <t>게시글 작성, 수정, 삭제 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글, 대댓글 작성, 삭제 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-007-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-008-02</t>
+  </si>
+  <si>
+    <t>관리자 권한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 비회원은 글,댓글 열람만 가능하게 권한 제한
+    - REQ-SFR-007-01, REQ-SFR-007-03 의 기능 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGM-SCC-P01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP600000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 관리자는 모든 글 수정과 삭제, 댓글 삭제 가능하게 권한 개방
+    - REQ-SFR-007-01, REQ-SFR-007-03 의 기능 개방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REQ-SFR-007-04</t>
+  </si>
+  <si>
+    <t>게시글 목록 열람 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCUP140000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +655,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,7 +902,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1155,6 +1225,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1176,7 +1287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,12 +1445,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1352,9 +1457,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1364,9 +1466,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="20" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1460,6 +1559,46 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1478,6 +1617,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1486,15 +1634,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4053,7 +4192,7 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="16.5" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" style="32" customWidth="1"/>
     <col min="2" max="12" width="12.875" style="32" customWidth="1"/>
@@ -4061,7 +4200,7 @@
     <col min="14" max="16384" width="0" style="31" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -4076,7 +4215,7 @@
       <c r="L1" s="42"/>
       <c r="M1" s="41"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="37"/>
       <c r="C2" s="37"/>
@@ -4091,7 +4230,7 @@
       <c r="L2" s="37"/>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13" ht="21" customHeight="1">
+    <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38"/>
       <c r="B3" s="37"/>
       <c r="C3" s="37"/>
@@ -4104,13 +4243,13 @@
       <c r="J3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="94" t="s">
+      <c r="K3" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="94"/>
+      <c r="L3" s="103"/>
       <c r="M3" s="36"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38"/>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -4125,7 +4264,7 @@
       <c r="L4" s="37"/>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -4140,7 +4279,7 @@
       <c r="L5" s="37"/>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38"/>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -4155,7 +4294,7 @@
       <c r="L6" s="37"/>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -4170,7 +4309,7 @@
       <c r="L7" s="37"/>
       <c r="M7" s="36"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -4185,7 +4324,7 @@
       <c r="L8" s="37"/>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -4200,7 +4339,7 @@
       <c r="L9" s="37"/>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -4215,84 +4354,84 @@
       <c r="L10" s="37"/>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="38"/>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="96"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="105"/>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="96"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="105"/>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="96"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1">
+    <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1">
+    <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -4307,7 +4446,7 @@
       <c r="L16" s="37"/>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1">
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -4322,7 +4461,7 @@
       <c r="L17" s="37"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -4337,7 +4476,7 @@
       <c r="L18" s="37"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1">
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -4352,7 +4491,7 @@
       <c r="L19" s="37"/>
       <c r="M19" s="36"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1">
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -4367,7 +4506,7 @@
       <c r="L20" s="37"/>
       <c r="M20" s="36"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1">
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -4382,39 +4521,39 @@
       <c r="L21" s="37"/>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1">
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="98">
+      <c r="F22" s="107">
         <v>45275</v>
       </c>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1">
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1">
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -4429,7 +4568,7 @@
       <c r="L24" s="37"/>
       <c r="M24" s="36"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1">
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -4444,7 +4583,7 @@
       <c r="L25" s="37"/>
       <c r="M25" s="36"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1">
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -4459,7 +4598,7 @@
       <c r="L26" s="37"/>
       <c r="M26" s="36"/>
     </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1">
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -4474,7 +4613,7 @@
       <c r="L27" s="37"/>
       <c r="M27" s="36"/>
     </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1">
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -4489,7 +4628,7 @@
       <c r="L28" s="37"/>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1">
+    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="35"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -4504,9 +4643,9 @@
       <c r="L29" s="34"/>
       <c r="M29" s="33"/>
     </row>
-    <row r="30" spans="1:13" hidden="1"/>
-    <row r="31" spans="1:13" hidden="1"/>
-    <row r="32" spans="1:13"/>
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="K3:L3"/>
@@ -4532,7 +4671,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="3" customWidth="1"/>
@@ -4543,7 +4682,7 @@
     <col min="14" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" customHeight="1">
+    <row r="1" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="26"/>
       <c r="C1" s="28"/>
@@ -4558,7 +4697,7 @@
       <c r="L1" s="26"/>
       <c r="M1" s="25"/>
     </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14"/>
       <c r="B2" s="24" t="s">
         <v>9</v>
@@ -4571,14 +4710,14 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="103" t="str">
+      <c r="K2" s="109" t="str">
         <f>표지!B11</f>
         <v>요구사항 추적표</v>
       </c>
-      <c r="L2" s="103"/>
+      <c r="L2" s="109"/>
       <c r="M2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="31.5">
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="21"/>
       <c r="C3" s="23"/>
@@ -4593,24 +4732,24 @@
       <c r="L3" s="21"/>
       <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
       <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="21" customHeight="1">
+    <row r="5" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="11"/>
       <c r="C5" s="13"/>
@@ -4625,7 +4764,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" ht="21" customHeight="1">
+    <row r="6" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>7</v>
@@ -4633,17 +4772,17 @@
       <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105" t="s">
+      <c r="E6" s="111"/>
+      <c r="F6" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="19" t="s">
         <v>3</v>
       </c>
@@ -4652,7 +4791,7 @@
       </c>
       <c r="M6" s="10"/>
     </row>
-    <row r="7" spans="1:13" ht="21" customHeight="1">
+    <row r="7" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="30">
         <v>1</v>
@@ -4660,17 +4799,17 @@
       <c r="C7" s="16">
         <v>45275</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="101"/>
-      <c r="F7" s="100" t="s">
+      <c r="E7" s="113"/>
+      <c r="F7" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="101"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="113"/>
       <c r="K7" s="15" t="s">
         <v>10</v>
       </c>
@@ -4679,262 +4818,262 @@
       </c>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:13" ht="21" customHeight="1">
+    <row r="8" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="101"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="113"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:13" ht="21" customHeight="1">
+    <row r="9" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="101"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="113"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:13" ht="21" customHeight="1">
+    <row r="10" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="101"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="113"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="21" customHeight="1">
+    <row r="11" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="101"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="113"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13" ht="21" customHeight="1">
+    <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="101"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="113"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="21" customHeight="1">
+    <row r="13" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="101"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="113"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:13" ht="21" customHeight="1">
+    <row r="14" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="101"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+      <c r="J14" s="113"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:13" ht="21" customHeight="1">
+    <row r="15" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="101"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="113"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:13" ht="21" customHeight="1">
+    <row r="16" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="101"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="113"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" ht="21" customHeight="1">
+    <row r="17" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="101"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="113"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" ht="21" customHeight="1">
+    <row r="18" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="101"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="113"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" ht="21" customHeight="1">
+    <row r="19" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="101"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="113"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="10"/>
     </row>
-    <row r="20" spans="1:13" ht="21" customHeight="1">
+    <row r="20" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="101"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="113"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="10"/>
     </row>
-    <row r="21" spans="1:13" ht="21" customHeight="1">
+    <row r="21" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="101"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="113"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="10"/>
     </row>
-    <row r="22" spans="1:13" ht="21" customHeight="1">
+    <row r="22" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="101"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="114"/>
+      <c r="J22" s="113"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13" ht="21" customHeight="1">
+    <row r="23" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="101"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="113"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13" ht="21" customHeight="1">
+    <row r="24" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="101"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="113"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="1:13" ht="21" customHeight="1">
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="11"/>
       <c r="C25" s="13"/>
@@ -4949,7 +5088,7 @@
       <c r="L25" s="11"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="1:13" ht="21" customHeight="1">
+    <row r="26" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="11"/>
       <c r="C26" s="13"/>
@@ -4964,7 +5103,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="1:13" ht="21" customHeight="1">
+    <row r="27" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="11"/>
       <c r="C27" s="13"/>
@@ -4979,7 +5118,7 @@
       <c r="L27" s="11"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="1:13" ht="21" customHeight="1">
+    <row r="28" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="11"/>
       <c r="C28" s="13"/>
@@ -4994,7 +5133,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1">
+    <row r="29" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="9"/>
       <c r="B29" s="6"/>
       <c r="C29" s="8"/>
@@ -5011,36 +5150,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -5051,6 +5160,36 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5064,26 +5203,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A5:I385"/>
+  <dimension ref="A5:I387"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="44"/>
     <col min="2" max="2" width="17.25" style="47" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="83" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.875" style="47" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="93" customWidth="1"/>
-    <col min="7" max="7" width="16.875" style="93" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="93" customWidth="1"/>
-    <col min="9" max="9" width="34.5" style="89" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="89" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="89" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="89" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="85" customWidth="1"/>
     <col min="10" max="10" width="4.125" style="47" customWidth="1"/>
     <col min="11" max="247" width="8.875" style="47"/>
     <col min="248" max="248" width="14.125" style="47" customWidth="1"/>
@@ -5656,20 +5795,20 @@
     <col min="16380" max="16384" width="9" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:9" ht="27">
-      <c r="B5" s="106" t="s">
+    <row r="5" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B5" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="109" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="118" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H5" s="45" t="s">
         <v>22</v>
@@ -5678,7 +5817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="44" t="s">
         <v>24</v>
       </c>
@@ -5691,9 +5830,9 @@
       <c r="D6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="110"/>
+      <c r="E6" s="119"/>
       <c r="F6" s="45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="45" t="s">
         <v>28</v>
@@ -5703,32 +5842,32 @@
       </c>
       <c r="I6" s="46"/>
     </row>
-    <row r="7" spans="1:9" ht="66">
+    <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>1</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="G7" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-    </row>
-    <row r="8" spans="1:9" ht="66">
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+    </row>
+    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>2</v>
       </c>
@@ -5736,24 +5875,24 @@
         <v>47</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>3</v>
       </c>
@@ -5761,20 +5900,24 @@
         <v>48</v>
       </c>
       <c r="C9" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="51" t="s">
-        <v>58</v>
-      </c>
       <c r="E9" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="57"/>
-    </row>
-    <row r="10" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="F9" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>4</v>
       </c>
@@ -5782,3946 +5925,4019 @@
         <v>49</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="57"/>
-    </row>
-    <row r="11" spans="1:9" ht="66">
+        <v>65</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>5</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="E11" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="57"/>
-    </row>
-    <row r="12" spans="1:9" ht="99">
+        <v>105</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="56"/>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>6</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>86</v>
       </c>
       <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-    </row>
-    <row r="13" spans="1:9" ht="33">
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" spans="1:9" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>7</v>
       </c>
       <c r="B13" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="44">
+        <v>8</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C14" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
+        <v>9</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D15" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="91"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="44">
+        <v>10</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="54" t="s">
+      <c r="E16" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="44">
+        <v>11</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="44">
+        <v>12</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="44">
         <v>13</v>
       </c>
-      <c r="G13" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="44">
-        <v>9</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="50" t="s">
+      <c r="B19" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="44">
+        <v>14</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="44">
-        <v>10</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="D20" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="44">
+        <v>15</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="54" t="s">
+      <c r="D21" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="44">
+        <v>16</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="44">
+        <v>17</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44">
+        <v>18</v>
+      </c>
+      <c r="B24" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="44">
-        <v>11</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="44">
-        <v>12</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="57"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="44">
-        <v>13</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="57"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="44">
-        <v>14</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="50" t="s">
+      <c r="C24" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="57"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="44">
-        <v>15</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="50" t="s">
+      <c r="D24" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="44">
+        <v>19</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D25" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="54"/>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="44">
+        <v>20</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="44">
+        <v>21</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="102" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" s="101"/>
+      <c r="I27" s="55"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="55"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="55"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="55"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="55"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="55"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="55"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="55"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="55"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="55"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="55"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="55"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="55"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="55"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="55"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="60"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="55"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="60"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="55"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="60"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="55"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="55"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="55"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="55"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="55"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="55"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="60"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="55"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="55"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="55"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="55"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="60"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="55"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="60"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="55"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="55"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="60"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="55"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="55"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="60"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="55"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="60"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="55"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="60"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="55"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="60"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="55"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="60"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="55"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="60"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="55"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="60"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="57"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="55"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="60"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="55"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B75" s="60"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="55"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B76" s="60"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="55"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="60"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="55"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="60"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="57"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="55"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B79" s="60"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="54"/>
+      <c r="I79" s="55"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="60"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="55"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="60"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="55"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="60"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="55"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="60"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="55"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="60"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="54"/>
+      <c r="I84" s="55"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="60"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="54"/>
+      <c r="I85" s="55"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="60"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="54"/>
+      <c r="I86" s="55"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="60"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="55"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="60"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="55"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="60"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="55"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B90" s="60"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="55"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="60"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="55"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="60"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="54"/>
+      <c r="I92" s="55"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B93" s="60"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="54"/>
+      <c r="I93" s="55"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B94" s="60"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="55"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B95" s="60"/>
+      <c r="C95" s="61"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="54"/>
+      <c r="I95" s="55"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="60"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="61"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="55"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="60"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="54"/>
+      <c r="I97" s="55"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="60"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="55"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="60"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="54"/>
+      <c r="I99" s="55"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="60"/>
+      <c r="C100" s="61"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="54"/>
+      <c r="I100" s="55"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="60"/>
+      <c r="C101" s="61"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="54"/>
+      <c r="I101" s="55"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="60"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="55"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="60"/>
+      <c r="C103" s="61"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="55"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="60"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="55"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="60"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="55"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="60"/>
+      <c r="C106" s="61"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="55"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="60"/>
+      <c r="C107" s="61"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="55"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="60"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="55"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="60"/>
+      <c r="C109" s="61"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="55"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="60"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="55"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B111" s="60"/>
+      <c r="C111" s="61"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="55"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="60"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="58"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="55"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="60"/>
+      <c r="C113" s="61"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="58"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="55"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="60"/>
+      <c r="C114" s="61"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="57"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="55"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="60"/>
+      <c r="C115" s="61"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="55"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="60"/>
+      <c r="C116" s="61"/>
+      <c r="D116" s="61"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="55"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="60"/>
+      <c r="C117" s="61"/>
+      <c r="D117" s="61"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="57"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="55"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="60"/>
+      <c r="C118" s="61"/>
+      <c r="D118" s="61"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="57"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="55"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B119" s="60"/>
+      <c r="C119" s="61"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="55"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B120" s="60"/>
+      <c r="C120" s="61"/>
+      <c r="D120" s="61"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="57"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="55"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B121" s="60"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="61"/>
+      <c r="E121" s="62"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="55"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B122" s="60"/>
+      <c r="C122" s="61"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="62"/>
+      <c r="F122" s="57"/>
+      <c r="G122" s="58"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="55"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B123" s="60"/>
+      <c r="C123" s="61"/>
+      <c r="D123" s="61"/>
+      <c r="E123" s="62"/>
+      <c r="F123" s="57"/>
+      <c r="G123" s="58"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="55"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B124" s="60"/>
+      <c r="C124" s="61"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="62"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="58"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="55"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B125" s="60"/>
+      <c r="C125" s="61"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="62"/>
+      <c r="F125" s="57"/>
+      <c r="G125" s="58"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="55"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B126" s="60"/>
+      <c r="C126" s="61"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="62"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="55"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B127" s="60"/>
+      <c r="C127" s="61"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="62"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="55"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B128" s="60"/>
+      <c r="C128" s="61"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="58"/>
+      <c r="H128" s="54"/>
+      <c r="I128" s="55"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B129" s="60"/>
+      <c r="C129" s="61"/>
+      <c r="D129" s="61"/>
+      <c r="E129" s="62"/>
+      <c r="F129" s="57"/>
+      <c r="G129" s="58"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="55"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B130" s="60"/>
+      <c r="C130" s="61"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="62"/>
+      <c r="F130" s="57"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="54"/>
+      <c r="I130" s="55"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B131" s="60"/>
+      <c r="C131" s="61"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="62"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="55"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B132" s="60"/>
+      <c r="C132" s="61"/>
+      <c r="D132" s="61"/>
+      <c r="E132" s="62"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="58"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="55"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B133" s="60"/>
+      <c r="C133" s="61"/>
+      <c r="D133" s="61"/>
+      <c r="E133" s="62"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="58"/>
+      <c r="H133" s="54"/>
+      <c r="I133" s="55"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B134" s="60"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="61"/>
+      <c r="E134" s="62"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="58"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="55"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B135" s="60"/>
+      <c r="C135" s="61"/>
+      <c r="D135" s="61"/>
+      <c r="E135" s="62"/>
+      <c r="F135" s="57"/>
+      <c r="G135" s="58"/>
+      <c r="H135" s="54"/>
+      <c r="I135" s="55"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B136" s="60"/>
+      <c r="C136" s="61"/>
+      <c r="D136" s="61"/>
+      <c r="E136" s="62"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="54"/>
+      <c r="I136" s="55"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B137" s="60"/>
+      <c r="C137" s="61"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="57"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="54"/>
+      <c r="I137" s="55"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B138" s="60"/>
+      <c r="C138" s="61"/>
+      <c r="D138" s="61"/>
+      <c r="E138" s="62"/>
+      <c r="F138" s="57"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="54"/>
+      <c r="I138" s="55"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B139" s="60"/>
+      <c r="C139" s="61"/>
+      <c r="D139" s="61"/>
+      <c r="E139" s="62"/>
+      <c r="F139" s="57"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="54"/>
+      <c r="I139" s="55"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B140" s="60"/>
+      <c r="C140" s="61"/>
+      <c r="D140" s="61"/>
+      <c r="E140" s="62"/>
+      <c r="F140" s="57"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="54"/>
+      <c r="I140" s="55"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141" s="60"/>
+      <c r="C141" s="61"/>
+      <c r="D141" s="61"/>
+      <c r="E141" s="62"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="54"/>
+      <c r="I141" s="55"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142" s="60"/>
+      <c r="C142" s="61"/>
+      <c r="D142" s="61"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="57"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="54"/>
+      <c r="I142" s="55"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B143" s="60"/>
+      <c r="C143" s="61"/>
+      <c r="D143" s="61"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="57"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="54"/>
+      <c r="I143" s="55"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B144" s="60"/>
+      <c r="C144" s="61"/>
+      <c r="D144" s="61"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="54"/>
+      <c r="I144" s="55"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B145" s="60"/>
+      <c r="C145" s="61"/>
+      <c r="D145" s="61"/>
+      <c r="E145" s="62"/>
+      <c r="F145" s="57"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="54"/>
+      <c r="I145" s="55"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B146" s="60"/>
+      <c r="C146" s="61"/>
+      <c r="D146" s="61"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="54"/>
+      <c r="I146" s="55"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B147" s="60"/>
+      <c r="C147" s="61"/>
+      <c r="D147" s="61"/>
+      <c r="E147" s="62"/>
+      <c r="F147" s="57"/>
+      <c r="G147" s="58"/>
+      <c r="H147" s="54"/>
+      <c r="I147" s="55"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B148" s="60"/>
+      <c r="C148" s="61"/>
+      <c r="D148" s="61"/>
+      <c r="E148" s="62"/>
+      <c r="F148" s="57"/>
+      <c r="G148" s="58"/>
+      <c r="H148" s="54"/>
+      <c r="I148" s="55"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B149" s="60"/>
+      <c r="C149" s="61"/>
+      <c r="D149" s="61"/>
+      <c r="E149" s="62"/>
+      <c r="F149" s="57"/>
+      <c r="G149" s="58"/>
+      <c r="H149" s="54"/>
+      <c r="I149" s="55"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B150" s="60"/>
+      <c r="C150" s="61"/>
+      <c r="D150" s="61"/>
+      <c r="E150" s="62"/>
+      <c r="F150" s="57"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="54"/>
+      <c r="I150" s="55"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B151" s="60"/>
+      <c r="C151" s="61"/>
+      <c r="D151" s="61"/>
+      <c r="E151" s="62"/>
+      <c r="F151" s="57"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="54"/>
+      <c r="I151" s="55"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B152" s="60"/>
+      <c r="C152" s="61"/>
+      <c r="D152" s="61"/>
+      <c r="E152" s="62"/>
+      <c r="F152" s="57"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="54"/>
+      <c r="I152" s="55"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B153" s="60"/>
+      <c r="C153" s="61"/>
+      <c r="D153" s="61"/>
+      <c r="E153" s="62"/>
+      <c r="F153" s="57"/>
+      <c r="G153" s="58"/>
+      <c r="H153" s="54"/>
+      <c r="I153" s="55"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B154" s="60"/>
+      <c r="C154" s="61"/>
+      <c r="D154" s="61"/>
+      <c r="E154" s="62"/>
+      <c r="F154" s="57"/>
+      <c r="G154" s="58"/>
+      <c r="H154" s="54"/>
+      <c r="I154" s="55"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B155" s="60"/>
+      <c r="C155" s="61"/>
+      <c r="D155" s="61"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="58"/>
+      <c r="H155" s="54"/>
+      <c r="I155" s="55"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B156" s="60"/>
+      <c r="C156" s="61"/>
+      <c r="D156" s="61"/>
+      <c r="E156" s="62"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="58"/>
+      <c r="H156" s="54"/>
+      <c r="I156" s="55"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B157" s="60"/>
+      <c r="C157" s="61"/>
+      <c r="D157" s="61"/>
+      <c r="E157" s="62"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="58"/>
+      <c r="H157" s="54"/>
+      <c r="I157" s="55"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B158" s="60"/>
+      <c r="C158" s="61"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="62"/>
+      <c r="F158" s="57"/>
+      <c r="G158" s="58"/>
+      <c r="H158" s="54"/>
+      <c r="I158" s="55"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B159" s="60"/>
+      <c r="C159" s="61"/>
+      <c r="D159" s="61"/>
+      <c r="E159" s="62"/>
+      <c r="F159" s="57"/>
+      <c r="G159" s="58"/>
+      <c r="H159" s="54"/>
+      <c r="I159" s="55"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B160" s="60"/>
+      <c r="C160" s="61"/>
+      <c r="D160" s="61"/>
+      <c r="E160" s="62"/>
+      <c r="F160" s="57"/>
+      <c r="G160" s="58"/>
+      <c r="H160" s="54"/>
+      <c r="I160" s="55"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B161" s="60"/>
+      <c r="C161" s="61"/>
+      <c r="D161" s="61"/>
+      <c r="E161" s="62"/>
+      <c r="F161" s="57"/>
+      <c r="G161" s="58"/>
+      <c r="H161" s="54"/>
+      <c r="I161" s="55"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B162" s="60"/>
+      <c r="C162" s="61"/>
+      <c r="D162" s="61"/>
+      <c r="E162" s="62"/>
+      <c r="F162" s="57"/>
+      <c r="G162" s="58"/>
+      <c r="H162" s="54"/>
+      <c r="I162" s="55"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B163" s="60"/>
+      <c r="C163" s="61"/>
+      <c r="D163" s="61"/>
+      <c r="E163" s="62"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="58"/>
+      <c r="H163" s="54"/>
+      <c r="I163" s="55"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B164" s="60"/>
+      <c r="C164" s="61"/>
+      <c r="D164" s="61"/>
+      <c r="E164" s="62"/>
+      <c r="F164" s="57"/>
+      <c r="G164" s="58"/>
+      <c r="H164" s="54"/>
+      <c r="I164" s="55"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B165" s="60"/>
+      <c r="C165" s="61"/>
+      <c r="D165" s="61"/>
+      <c r="E165" s="62"/>
+      <c r="F165" s="57"/>
+      <c r="G165" s="58"/>
+      <c r="H165" s="54"/>
+      <c r="I165" s="55"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B166" s="60"/>
+      <c r="C166" s="61"/>
+      <c r="D166" s="61"/>
+      <c r="E166" s="62"/>
+      <c r="F166" s="57"/>
+      <c r="G166" s="58"/>
+      <c r="H166" s="54"/>
+      <c r="I166" s="55"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B167" s="60"/>
+      <c r="C167" s="61"/>
+      <c r="D167" s="61"/>
+      <c r="E167" s="62"/>
+      <c r="F167" s="57"/>
+      <c r="G167" s="58"/>
+      <c r="H167" s="54"/>
+      <c r="I167" s="55"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B168" s="60"/>
+      <c r="C168" s="61"/>
+      <c r="D168" s="61"/>
+      <c r="E168" s="62"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="54"/>
+      <c r="I168" s="55"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B169" s="60"/>
+      <c r="C169" s="61"/>
+      <c r="D169" s="61"/>
+      <c r="E169" s="62"/>
+      <c r="F169" s="57"/>
+      <c r="G169" s="58"/>
+      <c r="H169" s="54"/>
+      <c r="I169" s="55"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B170" s="60"/>
+      <c r="C170" s="61"/>
+      <c r="D170" s="61"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="57"/>
+      <c r="G170" s="58"/>
+      <c r="H170" s="54"/>
+      <c r="I170" s="55"/>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B171" s="60"/>
+      <c r="C171" s="61"/>
+      <c r="D171" s="61"/>
+      <c r="E171" s="62"/>
+      <c r="F171" s="57"/>
+      <c r="G171" s="58"/>
+      <c r="H171" s="54"/>
+      <c r="I171" s="55"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B172" s="60"/>
+      <c r="C172" s="61"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="62"/>
+      <c r="F172" s="57"/>
+      <c r="G172" s="58"/>
+      <c r="H172" s="54"/>
+      <c r="I172" s="55"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B173" s="60"/>
+      <c r="C173" s="61"/>
+      <c r="D173" s="61"/>
+      <c r="E173" s="62"/>
+      <c r="F173" s="57"/>
+      <c r="G173" s="58"/>
+      <c r="H173" s="54"/>
+      <c r="I173" s="55"/>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B174" s="60"/>
+      <c r="C174" s="61"/>
+      <c r="D174" s="61"/>
+      <c r="E174" s="62"/>
+      <c r="F174" s="57"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="54"/>
+      <c r="I174" s="55"/>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B175" s="60"/>
+      <c r="C175" s="61"/>
+      <c r="D175" s="61"/>
+      <c r="E175" s="62"/>
+      <c r="F175" s="57"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="54"/>
+      <c r="I175" s="55"/>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B176" s="60"/>
+      <c r="C176" s="61"/>
+      <c r="D176" s="61"/>
+      <c r="E176" s="62"/>
+      <c r="F176" s="57"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="54"/>
+      <c r="I176" s="55"/>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B177" s="60"/>
+      <c r="C177" s="61"/>
+      <c r="D177" s="61"/>
+      <c r="E177" s="62"/>
+      <c r="F177" s="57"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="54"/>
+      <c r="I177" s="55"/>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B178" s="60"/>
+      <c r="C178" s="61"/>
+      <c r="D178" s="61"/>
+      <c r="E178" s="62"/>
+      <c r="F178" s="57"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="54"/>
+      <c r="I178" s="55"/>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B179" s="60"/>
+      <c r="C179" s="61"/>
+      <c r="D179" s="61"/>
+      <c r="E179" s="62"/>
+      <c r="F179" s="57"/>
+      <c r="G179" s="58"/>
+      <c r="H179" s="54"/>
+      <c r="I179" s="55"/>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B180" s="60"/>
+      <c r="C180" s="61"/>
+      <c r="D180" s="61"/>
+      <c r="E180" s="62"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="58"/>
+      <c r="H180" s="54"/>
+      <c r="I180" s="55"/>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B181" s="60"/>
+      <c r="C181" s="61"/>
+      <c r="D181" s="61"/>
+      <c r="E181" s="62"/>
+      <c r="F181" s="57"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="54"/>
+      <c r="I181" s="55"/>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B182" s="60"/>
+      <c r="C182" s="61"/>
+      <c r="D182" s="61"/>
+      <c r="E182" s="62"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="58"/>
+      <c r="H182" s="54"/>
+      <c r="I182" s="55"/>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B183" s="60"/>
+      <c r="C183" s="61"/>
+      <c r="D183" s="61"/>
+      <c r="E183" s="62"/>
+      <c r="F183" s="57"/>
+      <c r="G183" s="58"/>
+      <c r="H183" s="54"/>
+      <c r="I183" s="55"/>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B184" s="60"/>
+      <c r="C184" s="61"/>
+      <c r="D184" s="61"/>
+      <c r="E184" s="62"/>
+      <c r="F184" s="57"/>
+      <c r="G184" s="58"/>
+      <c r="H184" s="54"/>
+      <c r="I184" s="55"/>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B185" s="60"/>
+      <c r="C185" s="61"/>
+      <c r="D185" s="61"/>
+      <c r="E185" s="62"/>
+      <c r="F185" s="57"/>
+      <c r="G185" s="58"/>
+      <c r="H185" s="54"/>
+      <c r="I185" s="55"/>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B186" s="60"/>
+      <c r="C186" s="61"/>
+      <c r="D186" s="61"/>
+      <c r="E186" s="62"/>
+      <c r="F186" s="57"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="54"/>
+      <c r="I186" s="55"/>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B187" s="60"/>
+      <c r="C187" s="61"/>
+      <c r="D187" s="61"/>
+      <c r="E187" s="62"/>
+      <c r="F187" s="57"/>
+      <c r="G187" s="58"/>
+      <c r="H187" s="54"/>
+      <c r="I187" s="55"/>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B188" s="60"/>
+      <c r="C188" s="61"/>
+      <c r="D188" s="61"/>
+      <c r="E188" s="62"/>
+      <c r="F188" s="57"/>
+      <c r="G188" s="58"/>
+      <c r="H188" s="54"/>
+      <c r="I188" s="55"/>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B189" s="60"/>
+      <c r="C189" s="61"/>
+      <c r="D189" s="61"/>
+      <c r="E189" s="62"/>
+      <c r="F189" s="57"/>
+      <c r="G189" s="58"/>
+      <c r="H189" s="54"/>
+      <c r="I189" s="55"/>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B190" s="60"/>
+      <c r="C190" s="61"/>
+      <c r="D190" s="61"/>
+      <c r="E190" s="62"/>
+      <c r="F190" s="57"/>
+      <c r="G190" s="58"/>
+      <c r="H190" s="54"/>
+      <c r="I190" s="55"/>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B191" s="60"/>
+      <c r="C191" s="61"/>
+      <c r="D191" s="61"/>
+      <c r="E191" s="62"/>
+      <c r="F191" s="57"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="54"/>
+      <c r="I191" s="55"/>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B192" s="60"/>
+      <c r="C192" s="61"/>
+      <c r="D192" s="61"/>
+      <c r="E192" s="62"/>
+      <c r="F192" s="57"/>
+      <c r="G192" s="58"/>
+      <c r="H192" s="54"/>
+      <c r="I192" s="55"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B193" s="60"/>
+      <c r="C193" s="61"/>
+      <c r="D193" s="61"/>
+      <c r="E193" s="62"/>
+      <c r="F193" s="57"/>
+      <c r="G193" s="58"/>
+      <c r="H193" s="54"/>
+      <c r="I193" s="55"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B194" s="60"/>
+      <c r="C194" s="61"/>
+      <c r="D194" s="61"/>
+      <c r="E194" s="62"/>
+      <c r="F194" s="57"/>
+      <c r="G194" s="58"/>
+      <c r="H194" s="54"/>
+      <c r="I194" s="55"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B195" s="60"/>
+      <c r="C195" s="61"/>
+      <c r="D195" s="61"/>
+      <c r="E195" s="62"/>
+      <c r="F195" s="57"/>
+      <c r="G195" s="58"/>
+      <c r="H195" s="54"/>
+      <c r="I195" s="55"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B196" s="60"/>
+      <c r="C196" s="61"/>
+      <c r="D196" s="61"/>
+      <c r="E196" s="62"/>
+      <c r="F196" s="57"/>
+      <c r="G196" s="58"/>
+      <c r="H196" s="54"/>
+      <c r="I196" s="55"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B197" s="60"/>
+      <c r="C197" s="61"/>
+      <c r="D197" s="61"/>
+      <c r="E197" s="62"/>
+      <c r="F197" s="57"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="55"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B198" s="60"/>
+      <c r="C198" s="61"/>
+      <c r="D198" s="61"/>
+      <c r="E198" s="62"/>
+      <c r="F198" s="57"/>
+      <c r="G198" s="58"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="55"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B199" s="60"/>
+      <c r="C199" s="61"/>
+      <c r="D199" s="61"/>
+      <c r="E199" s="62"/>
+      <c r="F199" s="57"/>
+      <c r="G199" s="58"/>
+      <c r="H199" s="54"/>
+      <c r="I199" s="55"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B200" s="60"/>
+      <c r="C200" s="61"/>
+      <c r="D200" s="61"/>
+      <c r="E200" s="62"/>
+      <c r="F200" s="57"/>
+      <c r="G200" s="58"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="55"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B201" s="60"/>
+      <c r="C201" s="61"/>
+      <c r="D201" s="61"/>
+      <c r="E201" s="62"/>
+      <c r="F201" s="57"/>
+      <c r="G201" s="58"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="55"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B202" s="60"/>
+      <c r="C202" s="61"/>
+      <c r="D202" s="61"/>
+      <c r="E202" s="62"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="58"/>
+      <c r="H202" s="54"/>
+      <c r="I202" s="55"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B203" s="60"/>
+      <c r="C203" s="61"/>
+      <c r="D203" s="61"/>
+      <c r="E203" s="62"/>
+      <c r="F203" s="57"/>
+      <c r="G203" s="58"/>
+      <c r="H203" s="54"/>
+      <c r="I203" s="55"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B204" s="60"/>
+      <c r="C204" s="61"/>
+      <c r="D204" s="61"/>
+      <c r="E204" s="62"/>
+      <c r="F204" s="57"/>
+      <c r="G204" s="58"/>
+      <c r="H204" s="54"/>
+      <c r="I204" s="55"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B205" s="60"/>
+      <c r="C205" s="61"/>
+      <c r="D205" s="61"/>
+      <c r="E205" s="62"/>
+      <c r="F205" s="57"/>
+      <c r="G205" s="58"/>
+      <c r="H205" s="54"/>
+      <c r="I205" s="55"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B206" s="60"/>
+      <c r="C206" s="61"/>
+      <c r="D206" s="61"/>
+      <c r="E206" s="62"/>
+      <c r="F206" s="57"/>
+      <c r="G206" s="58"/>
+      <c r="H206" s="54"/>
+      <c r="I206" s="55"/>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B207" s="60"/>
+      <c r="C207" s="61"/>
+      <c r="D207" s="61"/>
+      <c r="E207" s="62"/>
+      <c r="F207" s="57"/>
+      <c r="G207" s="58"/>
+      <c r="H207" s="54"/>
+      <c r="I207" s="55"/>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B208" s="60"/>
+      <c r="C208" s="61"/>
+      <c r="D208" s="61"/>
+      <c r="E208" s="62"/>
+      <c r="F208" s="57"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="54"/>
+      <c r="I208" s="55"/>
+    </row>
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B209" s="60"/>
+      <c r="C209" s="61"/>
+      <c r="D209" s="61"/>
+      <c r="E209" s="62"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="58"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="55"/>
+    </row>
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B210" s="60"/>
+      <c r="C210" s="61"/>
+      <c r="D210" s="61"/>
+      <c r="E210" s="62"/>
+      <c r="F210" s="57"/>
+      <c r="G210" s="58"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="55"/>
+    </row>
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B211" s="60"/>
+      <c r="C211" s="61"/>
+      <c r="D211" s="61"/>
+      <c r="E211" s="62"/>
+      <c r="F211" s="57"/>
+      <c r="G211" s="58"/>
+      <c r="H211" s="54"/>
+      <c r="I211" s="55"/>
+    </row>
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B212" s="60"/>
+      <c r="C212" s="61"/>
+      <c r="D212" s="61"/>
+      <c r="E212" s="62"/>
+      <c r="F212" s="57"/>
+      <c r="G212" s="58"/>
+      <c r="H212" s="54"/>
+      <c r="I212" s="55"/>
+    </row>
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B213" s="60"/>
+      <c r="C213" s="61"/>
+      <c r="D213" s="61"/>
+      <c r="E213" s="62"/>
+      <c r="F213" s="57"/>
+      <c r="G213" s="58"/>
+      <c r="H213" s="54"/>
+      <c r="I213" s="55"/>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B214" s="60"/>
+      <c r="C214" s="61"/>
+      <c r="D214" s="61"/>
+      <c r="E214" s="62"/>
+      <c r="F214" s="57"/>
+      <c r="G214" s="58"/>
+      <c r="H214" s="54"/>
+      <c r="I214" s="55"/>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B215" s="60"/>
+      <c r="C215" s="61"/>
+      <c r="D215" s="61"/>
+      <c r="E215" s="62"/>
+      <c r="F215" s="57"/>
+      <c r="G215" s="58"/>
+      <c r="H215" s="54"/>
+      <c r="I215" s="55"/>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B216" s="60"/>
+      <c r="C216" s="61"/>
+      <c r="D216" s="61"/>
+      <c r="E216" s="62"/>
+      <c r="F216" s="57"/>
+      <c r="G216" s="58"/>
+      <c r="H216" s="54"/>
+      <c r="I216" s="55"/>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B217" s="60"/>
+      <c r="C217" s="61"/>
+      <c r="D217" s="61"/>
+      <c r="E217" s="62"/>
+      <c r="F217" s="57"/>
+      <c r="G217" s="58"/>
+      <c r="H217" s="54"/>
+      <c r="I217" s="55"/>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B218" s="60"/>
+      <c r="C218" s="61"/>
+      <c r="D218" s="61"/>
+      <c r="E218" s="62"/>
+      <c r="F218" s="57"/>
+      <c r="G218" s="58"/>
+      <c r="H218" s="54"/>
+      <c r="I218" s="55"/>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B219" s="60"/>
+      <c r="C219" s="61"/>
+      <c r="D219" s="61"/>
+      <c r="E219" s="62"/>
+      <c r="F219" s="57"/>
+      <c r="G219" s="58"/>
+      <c r="H219" s="54"/>
+      <c r="I219" s="55"/>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B220" s="60"/>
+      <c r="C220" s="61"/>
+      <c r="D220" s="61"/>
+      <c r="E220" s="62"/>
+      <c r="F220" s="57"/>
+      <c r="G220" s="58"/>
+      <c r="H220" s="54"/>
+      <c r="I220" s="55"/>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B221" s="60"/>
+      <c r="C221" s="61"/>
+      <c r="D221" s="61"/>
+      <c r="E221" s="62"/>
+      <c r="F221" s="57"/>
+      <c r="G221" s="58"/>
+      <c r="H221" s="54"/>
+      <c r="I221" s="55"/>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B222" s="60"/>
+      <c r="C222" s="61"/>
+      <c r="D222" s="61"/>
+      <c r="E222" s="62"/>
+      <c r="F222" s="57"/>
+      <c r="G222" s="58"/>
+      <c r="H222" s="54"/>
+      <c r="I222" s="55"/>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B223" s="60"/>
+      <c r="C223" s="61"/>
+      <c r="D223" s="61"/>
+      <c r="E223" s="62"/>
+      <c r="F223" s="57"/>
+      <c r="G223" s="58"/>
+      <c r="H223" s="54"/>
+      <c r="I223" s="55"/>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B224" s="60"/>
+      <c r="C224" s="61"/>
+      <c r="D224" s="61"/>
+      <c r="E224" s="62"/>
+      <c r="F224" s="57"/>
+      <c r="G224" s="58"/>
+      <c r="H224" s="54"/>
+      <c r="I224" s="55"/>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B225" s="60"/>
+      <c r="C225" s="61"/>
+      <c r="D225" s="61"/>
+      <c r="E225" s="62"/>
+      <c r="F225" s="57"/>
+      <c r="G225" s="58"/>
+      <c r="H225" s="54"/>
+      <c r="I225" s="55"/>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B226" s="60"/>
+      <c r="C226" s="61"/>
+      <c r="D226" s="61"/>
+      <c r="E226" s="62"/>
+      <c r="F226" s="57"/>
+      <c r="G226" s="58"/>
+      <c r="H226" s="54"/>
+      <c r="I226" s="55"/>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B227" s="60"/>
+      <c r="C227" s="61"/>
+      <c r="D227" s="61"/>
+      <c r="E227" s="62"/>
+      <c r="F227" s="57"/>
+      <c r="G227" s="58"/>
+      <c r="H227" s="54"/>
+      <c r="I227" s="55"/>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B228" s="60"/>
+      <c r="C228" s="61"/>
+      <c r="D228" s="61"/>
+      <c r="E228" s="62"/>
+      <c r="F228" s="57"/>
+      <c r="G228" s="58"/>
+      <c r="H228" s="54"/>
+      <c r="I228" s="55"/>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B229" s="60"/>
+      <c r="C229" s="61"/>
+      <c r="D229" s="61"/>
+      <c r="E229" s="62"/>
+      <c r="F229" s="57"/>
+      <c r="G229" s="58"/>
+      <c r="H229" s="54"/>
+      <c r="I229" s="55"/>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B230" s="60"/>
+      <c r="C230" s="61"/>
+      <c r="D230" s="61"/>
+      <c r="E230" s="62"/>
+      <c r="F230" s="57"/>
+      <c r="G230" s="58"/>
+      <c r="H230" s="54"/>
+      <c r="I230" s="55"/>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B231" s="60"/>
+      <c r="C231" s="61"/>
+      <c r="D231" s="61"/>
+      <c r="E231" s="62"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="58"/>
+      <c r="H231" s="54"/>
+      <c r="I231" s="55"/>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B232" s="60"/>
+      <c r="C232" s="61"/>
+      <c r="D232" s="61"/>
+      <c r="E232" s="62"/>
+      <c r="F232" s="57"/>
+      <c r="G232" s="58"/>
+      <c r="H232" s="54"/>
+      <c r="I232" s="55"/>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B233" s="60"/>
+      <c r="C233" s="61"/>
+      <c r="D233" s="61"/>
+      <c r="E233" s="62"/>
+      <c r="F233" s="57"/>
+      <c r="G233" s="58"/>
+      <c r="H233" s="54"/>
+      <c r="I233" s="55"/>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B234" s="60"/>
+      <c r="C234" s="61"/>
+      <c r="D234" s="61"/>
+      <c r="E234" s="62"/>
+      <c r="F234" s="57"/>
+      <c r="G234" s="58"/>
+      <c r="H234" s="54"/>
+      <c r="I234" s="55"/>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B235" s="60"/>
+      <c r="C235" s="61"/>
+      <c r="D235" s="61"/>
+      <c r="E235" s="62"/>
+      <c r="F235" s="57"/>
+      <c r="G235" s="58"/>
+      <c r="H235" s="54"/>
+      <c r="I235" s="55"/>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B236" s="60"/>
+      <c r="C236" s="61"/>
+      <c r="D236" s="61"/>
+      <c r="E236" s="62"/>
+      <c r="F236" s="57"/>
+      <c r="G236" s="58"/>
+      <c r="H236" s="54"/>
+      <c r="I236" s="55"/>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B237" s="60"/>
+      <c r="C237" s="61"/>
+      <c r="D237" s="61"/>
+      <c r="E237" s="62"/>
+      <c r="F237" s="57"/>
+      <c r="G237" s="58"/>
+      <c r="H237" s="54"/>
+      <c r="I237" s="55"/>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B238" s="60"/>
+      <c r="C238" s="61"/>
+      <c r="D238" s="61"/>
+      <c r="E238" s="62"/>
+      <c r="F238" s="57"/>
+      <c r="G238" s="58"/>
+      <c r="H238" s="54"/>
+      <c r="I238" s="55"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B239" s="60"/>
+      <c r="C239" s="61"/>
+      <c r="D239" s="61"/>
+      <c r="E239" s="62"/>
+      <c r="F239" s="57"/>
+      <c r="G239" s="58"/>
+      <c r="H239" s="54"/>
+      <c r="I239" s="55"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B240" s="60"/>
+      <c r="C240" s="61"/>
+      <c r="D240" s="61"/>
+      <c r="E240" s="62"/>
+      <c r="F240" s="57"/>
+      <c r="G240" s="58"/>
+      <c r="H240" s="54"/>
+      <c r="I240" s="55"/>
+    </row>
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B241" s="60"/>
+      <c r="C241" s="61"/>
+      <c r="D241" s="61"/>
+      <c r="E241" s="62"/>
+      <c r="F241" s="57"/>
+      <c r="G241" s="58"/>
+      <c r="H241" s="54"/>
+      <c r="I241" s="55"/>
+    </row>
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B242" s="60"/>
+      <c r="C242" s="61"/>
+      <c r="D242" s="61"/>
+      <c r="E242" s="62"/>
+      <c r="F242" s="57"/>
+      <c r="G242" s="58"/>
+      <c r="H242" s="54"/>
+      <c r="I242" s="55"/>
+    </row>
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B243" s="60"/>
+      <c r="C243" s="61"/>
+      <c r="D243" s="61"/>
+      <c r="E243" s="62"/>
+      <c r="F243" s="57"/>
+      <c r="G243" s="58"/>
+      <c r="H243" s="54"/>
+      <c r="I243" s="55"/>
+    </row>
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B244" s="60"/>
+      <c r="C244" s="61"/>
+      <c r="D244" s="61"/>
+      <c r="E244" s="62"/>
+      <c r="F244" s="57"/>
+      <c r="G244" s="58"/>
+      <c r="H244" s="54"/>
+      <c r="I244" s="55"/>
+    </row>
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B245" s="60"/>
+      <c r="C245" s="61"/>
+      <c r="D245" s="61"/>
+      <c r="E245" s="62"/>
+      <c r="F245" s="57"/>
+      <c r="G245" s="58"/>
+      <c r="H245" s="54"/>
+      <c r="I245" s="55"/>
+    </row>
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B246" s="60"/>
+      <c r="C246" s="61"/>
+      <c r="D246" s="61"/>
+      <c r="E246" s="62"/>
+      <c r="F246" s="57"/>
+      <c r="G246" s="58"/>
+      <c r="H246" s="54"/>
+      <c r="I246" s="55"/>
+    </row>
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B247" s="60"/>
+      <c r="C247" s="61"/>
+      <c r="D247" s="61"/>
+      <c r="E247" s="62"/>
+      <c r="F247" s="57"/>
+      <c r="G247" s="58"/>
+      <c r="H247" s="54"/>
+      <c r="I247" s="55"/>
+    </row>
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B248" s="60"/>
+      <c r="C248" s="61"/>
+      <c r="D248" s="61"/>
+      <c r="E248" s="62"/>
+      <c r="F248" s="57"/>
+      <c r="G248" s="58"/>
+      <c r="H248" s="54"/>
+      <c r="I248" s="55"/>
+    </row>
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B249" s="60"/>
+      <c r="C249" s="61"/>
+      <c r="D249" s="61"/>
+      <c r="E249" s="62"/>
+      <c r="F249" s="57"/>
+      <c r="G249" s="58"/>
+      <c r="H249" s="54"/>
+      <c r="I249" s="55"/>
+    </row>
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B250" s="60"/>
+      <c r="C250" s="61"/>
+      <c r="D250" s="61"/>
+      <c r="E250" s="62"/>
+      <c r="F250" s="57"/>
+      <c r="G250" s="58"/>
+      <c r="H250" s="54"/>
+      <c r="I250" s="55"/>
+    </row>
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B251" s="60"/>
+      <c r="C251" s="61"/>
+      <c r="D251" s="61"/>
+      <c r="E251" s="62"/>
+      <c r="F251" s="57"/>
+      <c r="G251" s="58"/>
+      <c r="H251" s="54"/>
+      <c r="I251" s="55"/>
+    </row>
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B252" s="60"/>
+      <c r="C252" s="61"/>
+      <c r="D252" s="61"/>
+      <c r="E252" s="62"/>
+      <c r="F252" s="57"/>
+      <c r="G252" s="58"/>
+      <c r="H252" s="54"/>
+      <c r="I252" s="55"/>
+    </row>
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B253" s="60"/>
+      <c r="C253" s="61"/>
+      <c r="D253" s="61"/>
+      <c r="E253" s="62"/>
+      <c r="F253" s="57"/>
+      <c r="G253" s="58"/>
+      <c r="H253" s="54"/>
+      <c r="I253" s="55"/>
+    </row>
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B254" s="60"/>
+      <c r="C254" s="61"/>
+      <c r="D254" s="61"/>
+      <c r="E254" s="62"/>
+      <c r="F254" s="57"/>
+      <c r="G254" s="58"/>
+      <c r="H254" s="54"/>
+      <c r="I254" s="55"/>
+    </row>
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B255" s="60"/>
+      <c r="C255" s="61"/>
+      <c r="D255" s="61"/>
+      <c r="E255" s="62"/>
+      <c r="F255" s="57"/>
+      <c r="G255" s="58"/>
+      <c r="H255" s="54"/>
+      <c r="I255" s="55"/>
+    </row>
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B256" s="60"/>
+      <c r="C256" s="61"/>
+      <c r="D256" s="61"/>
+      <c r="E256" s="62"/>
+      <c r="F256" s="57"/>
+      <c r="G256" s="58"/>
+      <c r="H256" s="54"/>
+      <c r="I256" s="55"/>
+    </row>
+    <row r="257" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B257" s="60"/>
+      <c r="C257" s="61"/>
+      <c r="D257" s="61"/>
+      <c r="E257" s="62"/>
+      <c r="F257" s="57"/>
+      <c r="G257" s="58"/>
+      <c r="H257" s="54"/>
+      <c r="I257" s="55"/>
+    </row>
+    <row r="258" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B258" s="60"/>
+      <c r="C258" s="61"/>
+      <c r="D258" s="61"/>
+      <c r="E258" s="62"/>
+      <c r="F258" s="57"/>
+      <c r="G258" s="58"/>
+      <c r="H258" s="54"/>
+      <c r="I258" s="55"/>
+    </row>
+    <row r="259" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B259" s="60"/>
+      <c r="C259" s="61"/>
+      <c r="D259" s="61"/>
+      <c r="E259" s="62"/>
+      <c r="F259" s="57"/>
+      <c r="G259" s="58"/>
+      <c r="H259" s="54"/>
+      <c r="I259" s="55"/>
+    </row>
+    <row r="260" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B260" s="60"/>
+      <c r="C260" s="61"/>
+      <c r="D260" s="61"/>
+      <c r="E260" s="62"/>
+      <c r="F260" s="57"/>
+      <c r="G260" s="58"/>
+      <c r="H260" s="54"/>
+      <c r="I260" s="55"/>
+    </row>
+    <row r="261" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B261" s="60"/>
+      <c r="C261" s="61"/>
+      <c r="D261" s="61"/>
+      <c r="E261" s="62"/>
+      <c r="F261" s="57"/>
+      <c r="G261" s="58"/>
+      <c r="H261" s="54"/>
+      <c r="I261" s="55"/>
+    </row>
+    <row r="262" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B262" s="60"/>
+      <c r="C262" s="61"/>
+      <c r="D262" s="61"/>
+      <c r="E262" s="62"/>
+      <c r="F262" s="57"/>
+      <c r="G262" s="58"/>
+      <c r="H262" s="54"/>
+      <c r="I262" s="55"/>
+    </row>
+    <row r="263" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B263" s="60"/>
+      <c r="C263" s="61"/>
+      <c r="D263" s="61"/>
+      <c r="E263" s="62"/>
+      <c r="F263" s="57"/>
+      <c r="G263" s="58"/>
+      <c r="H263" s="54"/>
+      <c r="I263" s="55"/>
+    </row>
+    <row r="264" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B264" s="60"/>
+      <c r="C264" s="61"/>
+      <c r="D264" s="61"/>
+      <c r="E264" s="62"/>
+      <c r="F264" s="57"/>
+      <c r="G264" s="58"/>
+      <c r="H264" s="54"/>
+      <c r="I264" s="55"/>
+    </row>
+    <row r="265" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B265" s="60"/>
+      <c r="C265" s="61"/>
+      <c r="D265" s="61"/>
+      <c r="E265" s="62"/>
+      <c r="F265" s="57"/>
+      <c r="G265" s="58"/>
+      <c r="H265" s="54"/>
+      <c r="I265" s="55"/>
+    </row>
+    <row r="266" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B266" s="60"/>
+      <c r="C266" s="61"/>
+      <c r="D266" s="61"/>
+      <c r="E266" s="62"/>
+      <c r="F266" s="57"/>
+      <c r="G266" s="58"/>
+      <c r="H266" s="54"/>
+      <c r="I266" s="55"/>
+    </row>
+    <row r="267" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B267" s="60"/>
+      <c r="C267" s="61"/>
+      <c r="D267" s="61"/>
+      <c r="E267" s="62"/>
+      <c r="F267" s="57"/>
+      <c r="G267" s="58"/>
+      <c r="H267" s="54"/>
+      <c r="I267" s="55"/>
+    </row>
+    <row r="268" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B268" s="60"/>
+      <c r="C268" s="61"/>
+      <c r="D268" s="61"/>
+      <c r="E268" s="62"/>
+      <c r="F268" s="57"/>
+      <c r="G268" s="58"/>
+      <c r="H268" s="54"/>
+      <c r="I268" s="55"/>
+    </row>
+    <row r="269" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B269" s="60"/>
+      <c r="C269" s="61"/>
+      <c r="D269" s="61"/>
+      <c r="E269" s="62"/>
+      <c r="F269" s="57"/>
+      <c r="G269" s="58"/>
+      <c r="H269" s="54"/>
+      <c r="I269" s="55"/>
+    </row>
+    <row r="270" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B270" s="60"/>
+      <c r="C270" s="61"/>
+      <c r="D270" s="61"/>
+      <c r="E270" s="62"/>
+      <c r="F270" s="57"/>
+      <c r="G270" s="58"/>
+      <c r="H270" s="54"/>
+      <c r="I270" s="55"/>
+    </row>
+    <row r="271" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B271" s="60"/>
+      <c r="C271" s="61"/>
+      <c r="D271" s="61"/>
+      <c r="E271" s="62"/>
+      <c r="F271" s="57"/>
+      <c r="G271" s="58"/>
+      <c r="H271" s="54"/>
+      <c r="I271" s="55"/>
+    </row>
+    <row r="272" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B272" s="60"/>
+      <c r="C272" s="61"/>
+      <c r="D272" s="61"/>
+      <c r="E272" s="62"/>
+      <c r="F272" s="57"/>
+      <c r="G272" s="58"/>
+      <c r="H272" s="54"/>
+      <c r="I272" s="55"/>
+    </row>
+    <row r="273" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B273" s="60"/>
+      <c r="C273" s="61"/>
+      <c r="D273" s="61"/>
+      <c r="E273" s="62"/>
+      <c r="F273" s="57"/>
+      <c r="G273" s="58"/>
+      <c r="H273" s="54"/>
+      <c r="I273" s="55"/>
+    </row>
+    <row r="274" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B274" s="60"/>
+      <c r="C274" s="61"/>
+      <c r="D274" s="61"/>
+      <c r="E274" s="62"/>
+      <c r="F274" s="57"/>
+      <c r="G274" s="58"/>
+      <c r="H274" s="54"/>
+      <c r="I274" s="55"/>
+    </row>
+    <row r="275" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B275" s="60"/>
+      <c r="C275" s="61"/>
+      <c r="D275" s="61"/>
+      <c r="E275" s="62"/>
+      <c r="F275" s="57"/>
+      <c r="G275" s="58"/>
+      <c r="H275" s="54"/>
+      <c r="I275" s="55"/>
+    </row>
+    <row r="276" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B276" s="60"/>
+      <c r="C276" s="61"/>
+      <c r="D276" s="61"/>
+      <c r="E276" s="62"/>
+      <c r="F276" s="57"/>
+      <c r="G276" s="58"/>
+      <c r="H276" s="54"/>
+      <c r="I276" s="55"/>
+    </row>
+    <row r="277" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B277" s="60"/>
+      <c r="C277" s="61"/>
+      <c r="D277" s="61"/>
+      <c r="E277" s="62"/>
+      <c r="F277" s="57"/>
+      <c r="G277" s="58"/>
+      <c r="H277" s="54"/>
+      <c r="I277" s="55"/>
+    </row>
+    <row r="278" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B278" s="60"/>
+      <c r="C278" s="61"/>
+      <c r="D278" s="61"/>
+      <c r="E278" s="62"/>
+      <c r="F278" s="57"/>
+      <c r="G278" s="58"/>
+      <c r="H278" s="54"/>
+      <c r="I278" s="55"/>
+    </row>
+    <row r="279" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B279" s="60"/>
+      <c r="C279" s="61"/>
+      <c r="D279" s="61"/>
+      <c r="E279" s="62"/>
+      <c r="F279" s="57"/>
+      <c r="G279" s="58"/>
+      <c r="H279" s="54"/>
+      <c r="I279" s="55"/>
+    </row>
+    <row r="280" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B280" s="60"/>
+      <c r="C280" s="61"/>
+      <c r="D280" s="61"/>
+      <c r="E280" s="62"/>
+      <c r="F280" s="57"/>
+      <c r="G280" s="58"/>
+      <c r="H280" s="54"/>
+      <c r="I280" s="55"/>
+    </row>
+    <row r="281" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B281" s="60"/>
+      <c r="C281" s="61"/>
+      <c r="D281" s="61"/>
+      <c r="E281" s="62"/>
+      <c r="F281" s="57"/>
+      <c r="G281" s="58"/>
+      <c r="H281" s="54"/>
+      <c r="I281" s="55"/>
+    </row>
+    <row r="282" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B282" s="60"/>
+      <c r="C282" s="61"/>
+      <c r="D282" s="61"/>
+      <c r="E282" s="62"/>
+      <c r="F282" s="57"/>
+      <c r="G282" s="58"/>
+      <c r="H282" s="54"/>
+      <c r="I282" s="55"/>
+    </row>
+    <row r="283" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B283" s="60"/>
+      <c r="C283" s="61"/>
+      <c r="D283" s="61"/>
+      <c r="E283" s="62"/>
+      <c r="F283" s="57"/>
+      <c r="G283" s="58"/>
+      <c r="H283" s="54"/>
+      <c r="I283" s="55"/>
+    </row>
+    <row r="284" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B284" s="60"/>
+      <c r="C284" s="61"/>
+      <c r="D284" s="61"/>
+      <c r="E284" s="62"/>
+      <c r="F284" s="57"/>
+      <c r="G284" s="58"/>
+      <c r="H284" s="54"/>
+      <c r="I284" s="55"/>
+    </row>
+    <row r="285" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B285" s="60"/>
+      <c r="C285" s="61"/>
+      <c r="D285" s="61"/>
+      <c r="E285" s="62"/>
+      <c r="F285" s="57"/>
+      <c r="G285" s="58"/>
+      <c r="H285" s="54"/>
+      <c r="I285" s="55"/>
+    </row>
+    <row r="286" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B286" s="60"/>
+      <c r="C286" s="61"/>
+      <c r="D286" s="61"/>
+      <c r="E286" s="62"/>
+      <c r="F286" s="57"/>
+      <c r="G286" s="58"/>
+      <c r="H286" s="54"/>
+      <c r="I286" s="55"/>
+    </row>
+    <row r="287" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B287" s="60"/>
+      <c r="C287" s="61"/>
+      <c r="D287" s="61"/>
+      <c r="E287" s="62"/>
+      <c r="F287" s="57"/>
+      <c r="G287" s="58"/>
+      <c r="H287" s="54"/>
+      <c r="I287" s="55"/>
+    </row>
+    <row r="288" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B288" s="60"/>
+      <c r="C288" s="61"/>
+      <c r="D288" s="61"/>
+      <c r="E288" s="62"/>
+      <c r="F288" s="57"/>
+      <c r="G288" s="58"/>
+      <c r="H288" s="54"/>
+      <c r="I288" s="55"/>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B289" s="60"/>
+      <c r="C289" s="61"/>
+      <c r="D289" s="61"/>
+      <c r="E289" s="62"/>
+      <c r="F289" s="57"/>
+      <c r="G289" s="58"/>
+      <c r="H289" s="54"/>
+      <c r="I289" s="55"/>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B290" s="60"/>
+      <c r="C290" s="61"/>
+      <c r="D290" s="61"/>
+      <c r="E290" s="62"/>
+      <c r="F290" s="57"/>
+      <c r="G290" s="58"/>
+      <c r="H290" s="54"/>
+      <c r="I290" s="55"/>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B291" s="60"/>
+      <c r="C291" s="61"/>
+      <c r="D291" s="61"/>
+      <c r="E291" s="62"/>
+      <c r="F291" s="57"/>
+      <c r="G291" s="58"/>
+      <c r="H291" s="54"/>
+      <c r="I291" s="55"/>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B292" s="60"/>
+      <c r="C292" s="61"/>
+      <c r="D292" s="61"/>
+      <c r="E292" s="62"/>
+      <c r="F292" s="57"/>
+      <c r="G292" s="58"/>
+      <c r="H292" s="54"/>
+      <c r="I292" s="55"/>
+    </row>
+    <row r="293" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B293" s="60"/>
+      <c r="C293" s="61"/>
+      <c r="D293" s="61"/>
+      <c r="E293" s="62"/>
+      <c r="F293" s="57"/>
+      <c r="G293" s="58"/>
+      <c r="H293" s="54"/>
+      <c r="I293" s="55"/>
+    </row>
+    <row r="294" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B294" s="60"/>
+      <c r="C294" s="61"/>
+      <c r="D294" s="61"/>
+      <c r="E294" s="62"/>
+      <c r="F294" s="57"/>
+      <c r="G294" s="58"/>
+      <c r="H294" s="54"/>
+      <c r="I294" s="55"/>
+    </row>
+    <row r="295" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B295" s="60"/>
+      <c r="C295" s="61"/>
+      <c r="D295" s="61"/>
+      <c r="E295" s="62"/>
+      <c r="F295" s="57"/>
+      <c r="G295" s="58"/>
+      <c r="H295" s="54"/>
+      <c r="I295" s="55"/>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B296" s="60"/>
+      <c r="C296" s="61"/>
+      <c r="D296" s="61"/>
+      <c r="E296" s="62"/>
+      <c r="F296" s="57"/>
+      <c r="G296" s="58"/>
+      <c r="H296" s="54"/>
+      <c r="I296" s="55"/>
+    </row>
+    <row r="297" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B297" s="60"/>
+      <c r="C297" s="61"/>
+      <c r="D297" s="61"/>
+      <c r="E297" s="62"/>
+      <c r="F297" s="57"/>
+      <c r="G297" s="58"/>
+      <c r="H297" s="54"/>
+      <c r="I297" s="55"/>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B298" s="60"/>
+      <c r="C298" s="61"/>
+      <c r="D298" s="61"/>
+      <c r="E298" s="62"/>
+      <c r="F298" s="57"/>
+      <c r="G298" s="58"/>
+      <c r="H298" s="54"/>
+      <c r="I298" s="55"/>
+    </row>
+    <row r="299" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B299" s="60"/>
+      <c r="C299" s="61"/>
+      <c r="D299" s="61"/>
+      <c r="E299" s="62"/>
+      <c r="F299" s="57"/>
+      <c r="G299" s="58"/>
+      <c r="H299" s="54"/>
+      <c r="I299" s="55"/>
+    </row>
+    <row r="300" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B300" s="60"/>
+      <c r="C300" s="61"/>
+      <c r="D300" s="61"/>
+      <c r="E300" s="62"/>
+      <c r="F300" s="57"/>
+      <c r="G300" s="58"/>
+      <c r="H300" s="54"/>
+      <c r="I300" s="55"/>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B301" s="60"/>
+      <c r="C301" s="61"/>
+      <c r="D301" s="61"/>
+      <c r="E301" s="62"/>
+      <c r="F301" s="57"/>
+      <c r="G301" s="58"/>
+      <c r="H301" s="54"/>
+      <c r="I301" s="55"/>
+    </row>
+    <row r="302" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B302" s="60"/>
+      <c r="C302" s="61"/>
+      <c r="D302" s="61"/>
+      <c r="E302" s="62"/>
+      <c r="F302" s="57"/>
+      <c r="G302" s="58"/>
+      <c r="H302" s="54"/>
+      <c r="I302" s="55"/>
+    </row>
+    <row r="303" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B303" s="60"/>
+      <c r="C303" s="61"/>
+      <c r="D303" s="61"/>
+      <c r="E303" s="62"/>
+      <c r="F303" s="57"/>
+      <c r="G303" s="58"/>
+      <c r="H303" s="54"/>
+      <c r="I303" s="55"/>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B304" s="60"/>
+      <c r="C304" s="61"/>
+      <c r="D304" s="61"/>
+      <c r="E304" s="62"/>
+      <c r="F304" s="57"/>
+      <c r="G304" s="58"/>
+      <c r="H304" s="54"/>
+      <c r="I304" s="55"/>
+    </row>
+    <row r="305" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B305" s="60"/>
+      <c r="C305" s="61"/>
+      <c r="D305" s="61"/>
+      <c r="E305" s="62"/>
+      <c r="F305" s="57"/>
+      <c r="G305" s="58"/>
+      <c r="H305" s="54"/>
+      <c r="I305" s="55"/>
+    </row>
+    <row r="306" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B306" s="60"/>
+      <c r="C306" s="61"/>
+      <c r="D306" s="61"/>
+      <c r="E306" s="62"/>
+      <c r="F306" s="57"/>
+      <c r="G306" s="58"/>
+      <c r="H306" s="54"/>
+      <c r="I306" s="55"/>
+    </row>
+    <row r="307" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B307" s="60"/>
+      <c r="C307" s="61"/>
+      <c r="D307" s="61"/>
+      <c r="E307" s="62"/>
+      <c r="F307" s="57"/>
+      <c r="G307" s="58"/>
+      <c r="H307" s="54"/>
+      <c r="I307" s="55"/>
+    </row>
+    <row r="308" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B308" s="60"/>
+      <c r="C308" s="61"/>
+      <c r="D308" s="61"/>
+      <c r="E308" s="62"/>
+      <c r="F308" s="57"/>
+      <c r="G308" s="58"/>
+      <c r="H308" s="54"/>
+      <c r="I308" s="55"/>
+    </row>
+    <row r="309" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B309" s="60"/>
+      <c r="C309" s="61"/>
+      <c r="D309" s="61"/>
+      <c r="E309" s="62"/>
+      <c r="F309" s="57"/>
+      <c r="G309" s="58"/>
+      <c r="H309" s="54"/>
+      <c r="I309" s="55"/>
+    </row>
+    <row r="310" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B310" s="60"/>
+      <c r="C310" s="61"/>
+      <c r="D310" s="61"/>
+      <c r="E310" s="62"/>
+      <c r="F310" s="57"/>
+      <c r="G310" s="58"/>
+      <c r="H310" s="54"/>
+      <c r="I310" s="55"/>
+    </row>
+    <row r="311" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B311" s="60"/>
+      <c r="C311" s="61"/>
+      <c r="D311" s="61"/>
+      <c r="E311" s="62"/>
+      <c r="F311" s="57"/>
+      <c r="G311" s="58"/>
+      <c r="H311" s="54"/>
+      <c r="I311" s="55"/>
+    </row>
+    <row r="312" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B312" s="60"/>
+      <c r="C312" s="61"/>
+      <c r="D312" s="61"/>
+      <c r="E312" s="62"/>
+      <c r="F312" s="57"/>
+      <c r="G312" s="58"/>
+      <c r="H312" s="54"/>
+      <c r="I312" s="55"/>
+    </row>
+    <row r="313" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B313" s="60"/>
+      <c r="C313" s="61"/>
+      <c r="D313" s="61"/>
+      <c r="E313" s="62"/>
+      <c r="F313" s="57"/>
+      <c r="G313" s="58"/>
+      <c r="H313" s="54"/>
+      <c r="I313" s="55"/>
+    </row>
+    <row r="314" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B314" s="60"/>
+      <c r="C314" s="61"/>
+      <c r="D314" s="61"/>
+      <c r="E314" s="62"/>
+      <c r="F314" s="57"/>
+      <c r="G314" s="58"/>
+      <c r="H314" s="54"/>
+      <c r="I314" s="55"/>
+    </row>
+    <row r="315" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B315" s="60"/>
+      <c r="C315" s="61"/>
+      <c r="D315" s="61"/>
+      <c r="E315" s="62"/>
+      <c r="F315" s="57"/>
+      <c r="G315" s="58"/>
+      <c r="H315" s="54"/>
+      <c r="I315" s="55"/>
+    </row>
+    <row r="316" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B316" s="60"/>
+      <c r="C316" s="61"/>
+      <c r="D316" s="61"/>
+      <c r="E316" s="62"/>
+      <c r="F316" s="57"/>
+      <c r="G316" s="58"/>
+      <c r="H316" s="54"/>
+      <c r="I316" s="55"/>
+    </row>
+    <row r="317" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B317" s="60"/>
+      <c r="C317" s="61"/>
+      <c r="D317" s="61"/>
+      <c r="E317" s="62"/>
+      <c r="F317" s="57"/>
+      <c r="G317" s="58"/>
+      <c r="H317" s="54"/>
+      <c r="I317" s="55"/>
+    </row>
+    <row r="318" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B318" s="60"/>
+      <c r="C318" s="61"/>
+      <c r="D318" s="61"/>
+      <c r="E318" s="62"/>
+      <c r="F318" s="57"/>
+      <c r="G318" s="58"/>
+      <c r="H318" s="54"/>
+      <c r="I318" s="55"/>
+    </row>
+    <row r="319" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B319" s="60"/>
+      <c r="C319" s="61"/>
+      <c r="D319" s="61"/>
+      <c r="E319" s="62"/>
+      <c r="F319" s="57"/>
+      <c r="G319" s="58"/>
+      <c r="H319" s="54"/>
+      <c r="I319" s="55"/>
+    </row>
+    <row r="320" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B320" s="60"/>
+      <c r="C320" s="61"/>
+      <c r="D320" s="61"/>
+      <c r="E320" s="62"/>
+      <c r="F320" s="57"/>
+      <c r="G320" s="58"/>
+      <c r="H320" s="54"/>
+      <c r="I320" s="55"/>
+    </row>
+    <row r="321" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B321" s="60"/>
+      <c r="C321" s="61"/>
+      <c r="D321" s="61"/>
+      <c r="E321" s="62"/>
+      <c r="F321" s="57"/>
+      <c r="G321" s="58"/>
+      <c r="H321" s="54"/>
+      <c r="I321" s="55"/>
+    </row>
+    <row r="322" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B322" s="60"/>
+      <c r="C322" s="61"/>
+      <c r="D322" s="61"/>
+      <c r="E322" s="62"/>
+      <c r="F322" s="57"/>
+      <c r="G322" s="58"/>
+      <c r="H322" s="54"/>
+      <c r="I322" s="55"/>
+    </row>
+    <row r="323" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B323" s="60"/>
+      <c r="C323" s="61"/>
+      <c r="D323" s="61"/>
+      <c r="E323" s="62"/>
+      <c r="F323" s="57"/>
+      <c r="G323" s="58"/>
+      <c r="H323" s="54"/>
+      <c r="I323" s="55"/>
+    </row>
+    <row r="324" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B324" s="60"/>
+      <c r="C324" s="61"/>
+      <c r="D324" s="61"/>
+      <c r="E324" s="62"/>
+      <c r="F324" s="57"/>
+      <c r="G324" s="58"/>
+      <c r="H324" s="54"/>
+      <c r="I324" s="55"/>
+    </row>
+    <row r="325" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B325" s="60"/>
+      <c r="C325" s="61"/>
+      <c r="D325" s="61"/>
+      <c r="E325" s="62"/>
+      <c r="F325" s="57"/>
+      <c r="G325" s="58"/>
+      <c r="H325" s="54"/>
+      <c r="I325" s="55"/>
+    </row>
+    <row r="326" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B326" s="60"/>
+      <c r="C326" s="61"/>
+      <c r="D326" s="61"/>
+      <c r="E326" s="62"/>
+      <c r="F326" s="57"/>
+      <c r="G326" s="58"/>
+      <c r="H326" s="54"/>
+      <c r="I326" s="55"/>
+    </row>
+    <row r="327" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B327" s="60"/>
+      <c r="C327" s="61"/>
+      <c r="D327" s="61"/>
+      <c r="E327" s="62"/>
+      <c r="F327" s="57"/>
+      <c r="G327" s="58"/>
+      <c r="H327" s="54"/>
+      <c r="I327" s="55"/>
+    </row>
+    <row r="328" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B328" s="60"/>
+      <c r="C328" s="61"/>
+      <c r="D328" s="61"/>
+      <c r="E328" s="62"/>
+      <c r="F328" s="57"/>
+      <c r="G328" s="58"/>
+      <c r="H328" s="54"/>
+      <c r="I328" s="55"/>
+    </row>
+    <row r="329" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B329" s="60"/>
+      <c r="C329" s="61"/>
+      <c r="D329" s="61"/>
+      <c r="E329" s="62"/>
+      <c r="F329" s="57"/>
+      <c r="G329" s="58"/>
+      <c r="H329" s="54"/>
+      <c r="I329" s="55"/>
+    </row>
+    <row r="330" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B330" s="60"/>
+      <c r="C330" s="61"/>
+      <c r="D330" s="61"/>
+      <c r="E330" s="62"/>
+      <c r="F330" s="57"/>
+      <c r="G330" s="58"/>
+      <c r="H330" s="54"/>
+      <c r="I330" s="55"/>
+    </row>
+    <row r="331" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B331" s="60"/>
+      <c r="C331" s="61"/>
+      <c r="D331" s="61"/>
+      <c r="E331" s="62"/>
+      <c r="F331" s="57"/>
+      <c r="G331" s="58"/>
+      <c r="H331" s="54"/>
+      <c r="I331" s="55"/>
+    </row>
+    <row r="332" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B332" s="60"/>
+      <c r="C332" s="61"/>
+      <c r="D332" s="61"/>
+      <c r="E332" s="62"/>
+      <c r="F332" s="57"/>
+      <c r="G332" s="58"/>
+      <c r="H332" s="54"/>
+      <c r="I332" s="55"/>
+    </row>
+    <row r="333" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B333" s="60"/>
+      <c r="C333" s="61"/>
+      <c r="D333" s="61"/>
+      <c r="E333" s="62"/>
+      <c r="F333" s="57"/>
+      <c r="G333" s="58"/>
+      <c r="H333" s="54"/>
+      <c r="I333" s="55"/>
+    </row>
+    <row r="334" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B334" s="60"/>
+      <c r="C334" s="61"/>
+      <c r="D334" s="61"/>
+      <c r="E334" s="62"/>
+      <c r="F334" s="57"/>
+      <c r="G334" s="58"/>
+      <c r="H334" s="54"/>
+      <c r="I334" s="55"/>
+    </row>
+    <row r="335" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B335" s="60"/>
+      <c r="C335" s="61"/>
+      <c r="D335" s="61"/>
+      <c r="E335" s="62"/>
+      <c r="F335" s="57"/>
+      <c r="G335" s="58"/>
+      <c r="H335" s="54"/>
+      <c r="I335" s="55"/>
+    </row>
+    <row r="336" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B336" s="60"/>
+      <c r="C336" s="61"/>
+      <c r="D336" s="61"/>
+      <c r="E336" s="62"/>
+      <c r="F336" s="57"/>
+      <c r="G336" s="58"/>
+      <c r="H336" s="54"/>
+      <c r="I336" s="55"/>
+    </row>
+    <row r="337" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B337" s="60"/>
+      <c r="C337" s="61"/>
+      <c r="D337" s="61"/>
+      <c r="E337" s="62"/>
+      <c r="F337" s="57"/>
+      <c r="G337" s="58"/>
+      <c r="H337" s="54"/>
+      <c r="I337" s="55"/>
+    </row>
+    <row r="338" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B338" s="60"/>
+      <c r="C338" s="61"/>
+      <c r="D338" s="61"/>
+      <c r="E338" s="62"/>
+      <c r="F338" s="57"/>
+      <c r="G338" s="58"/>
+      <c r="H338" s="54"/>
+      <c r="I338" s="55"/>
+    </row>
+    <row r="339" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B339" s="60"/>
+      <c r="C339" s="61"/>
+      <c r="D339" s="61"/>
+      <c r="E339" s="62"/>
+      <c r="F339" s="57"/>
+      <c r="G339" s="58"/>
+      <c r="H339" s="54"/>
+      <c r="I339" s="55"/>
+    </row>
+    <row r="340" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B340" s="63"/>
+      <c r="C340" s="61"/>
+      <c r="D340" s="61"/>
+      <c r="E340" s="62"/>
+      <c r="F340" s="57"/>
+      <c r="G340" s="58"/>
+      <c r="H340" s="54"/>
+      <c r="I340" s="55"/>
+    </row>
+    <row r="341" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B341" s="63"/>
+      <c r="C341" s="61"/>
+      <c r="D341" s="61"/>
+      <c r="E341" s="62"/>
+      <c r="F341" s="58"/>
+      <c r="G341" s="58"/>
+      <c r="H341" s="54"/>
+      <c r="I341" s="55"/>
+    </row>
+    <row r="342" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B342" s="63"/>
+      <c r="C342" s="61"/>
+      <c r="D342" s="61"/>
+      <c r="E342" s="62"/>
+      <c r="F342" s="57"/>
+      <c r="G342" s="58"/>
+      <c r="H342" s="54"/>
+      <c r="I342" s="55"/>
+    </row>
+    <row r="343" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B343" s="63"/>
+      <c r="C343" s="61"/>
+      <c r="D343" s="61"/>
+      <c r="E343" s="62"/>
+      <c r="F343" s="58"/>
+      <c r="G343" s="58"/>
+      <c r="H343" s="54"/>
+      <c r="I343" s="55"/>
+    </row>
+    <row r="344" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B344" s="64"/>
+      <c r="C344" s="61"/>
+      <c r="D344" s="61"/>
+      <c r="E344" s="62"/>
+      <c r="F344" s="57"/>
+      <c r="G344" s="57"/>
+      <c r="H344" s="57"/>
+      <c r="I344" s="57"/>
+    </row>
+    <row r="345" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B345" s="64"/>
+      <c r="C345" s="61"/>
+      <c r="D345" s="61"/>
+      <c r="E345" s="62"/>
+      <c r="F345" s="58"/>
+      <c r="G345" s="58"/>
+      <c r="H345" s="54"/>
+      <c r="I345" s="55"/>
+    </row>
+    <row r="346" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B346" s="64"/>
+      <c r="C346" s="61"/>
+      <c r="D346" s="61"/>
+      <c r="E346" s="62"/>
+      <c r="F346" s="57"/>
+      <c r="G346" s="58"/>
+      <c r="H346" s="54"/>
+      <c r="I346" s="55"/>
+    </row>
+    <row r="347" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B347" s="64"/>
+      <c r="C347" s="61"/>
+      <c r="D347" s="61"/>
+      <c r="E347" s="62"/>
+      <c r="F347" s="58"/>
+      <c r="G347" s="58"/>
+      <c r="H347" s="54"/>
+      <c r="I347" s="55"/>
+    </row>
+    <row r="348" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B348" s="64"/>
+      <c r="C348" s="61"/>
+      <c r="D348" s="61"/>
+      <c r="E348" s="62"/>
+      <c r="F348" s="58"/>
+      <c r="G348" s="58"/>
+      <c r="H348" s="54"/>
+      <c r="I348" s="55"/>
+    </row>
+    <row r="349" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B349" s="64"/>
+      <c r="C349" s="61"/>
+      <c r="D349" s="61"/>
+      <c r="E349" s="62"/>
+      <c r="F349" s="57"/>
+      <c r="G349" s="58"/>
+      <c r="H349" s="54"/>
+      <c r="I349" s="55"/>
+    </row>
+    <row r="350" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B350" s="64"/>
+      <c r="C350" s="61"/>
+      <c r="D350" s="61"/>
+      <c r="E350" s="62"/>
+      <c r="F350" s="58"/>
+      <c r="G350" s="58"/>
+      <c r="H350" s="54"/>
+      <c r="I350" s="55"/>
+    </row>
+    <row r="351" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B351" s="64"/>
+      <c r="C351" s="61"/>
+      <c r="D351" s="61"/>
+      <c r="E351" s="62"/>
+      <c r="F351" s="57"/>
+      <c r="G351" s="58"/>
+      <c r="H351" s="54"/>
+      <c r="I351" s="55"/>
+    </row>
+    <row r="352" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B352" s="64"/>
+      <c r="C352" s="61"/>
+      <c r="D352" s="61"/>
+      <c r="E352" s="62"/>
+      <c r="F352" s="58"/>
+      <c r="G352" s="58"/>
+      <c r="H352" s="54"/>
+      <c r="I352" s="55"/>
+    </row>
+    <row r="353" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B353" s="64"/>
+      <c r="C353" s="61"/>
+      <c r="D353" s="61"/>
+      <c r="E353" s="62"/>
+      <c r="F353" s="57"/>
+      <c r="G353" s="58"/>
+      <c r="H353" s="54"/>
+      <c r="I353" s="55"/>
+    </row>
+    <row r="354" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B354" s="64"/>
+      <c r="C354" s="61"/>
+      <c r="D354" s="61"/>
+      <c r="E354" s="62"/>
+      <c r="F354" s="57"/>
+      <c r="G354" s="58"/>
+      <c r="H354" s="54"/>
+      <c r="I354" s="55"/>
+    </row>
+    <row r="355" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B355" s="64"/>
+      <c r="C355" s="61"/>
+      <c r="D355" s="61"/>
+      <c r="E355" s="62"/>
+      <c r="F355" s="57"/>
+      <c r="G355" s="58"/>
+      <c r="H355" s="54"/>
+      <c r="I355" s="55"/>
+    </row>
+    <row r="356" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B356" s="65"/>
+      <c r="C356" s="66"/>
+      <c r="D356" s="67"/>
+      <c r="E356" s="62"/>
+      <c r="F356" s="57"/>
+      <c r="G356" s="57"/>
+      <c r="H356" s="59"/>
+      <c r="I356" s="55"/>
+    </row>
+    <row r="357" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B357" s="65"/>
+      <c r="C357" s="66"/>
+      <c r="D357" s="67"/>
+      <c r="E357" s="62"/>
+      <c r="F357" s="57"/>
+      <c r="G357" s="57"/>
+      <c r="H357" s="59"/>
+      <c r="I357" s="55"/>
+    </row>
+    <row r="358" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B358" s="65"/>
+      <c r="C358" s="66"/>
+      <c r="D358" s="67"/>
+      <c r="E358" s="62"/>
+      <c r="F358" s="57"/>
+      <c r="G358" s="57"/>
+      <c r="H358" s="59"/>
+      <c r="I358" s="55"/>
+    </row>
+    <row r="359" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B359" s="65"/>
+      <c r="C359" s="66"/>
+      <c r="D359" s="67"/>
+      <c r="E359" s="62"/>
+      <c r="F359" s="57"/>
+      <c r="G359" s="57"/>
+      <c r="H359" s="59"/>
+      <c r="I359" s="55"/>
+    </row>
+    <row r="360" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B360" s="65"/>
+      <c r="C360" s="66"/>
+      <c r="D360" s="67"/>
+      <c r="E360" s="62"/>
+      <c r="F360" s="57"/>
+      <c r="G360" s="57"/>
+      <c r="H360" s="59"/>
+      <c r="I360" s="55"/>
+    </row>
+    <row r="361" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B361" s="65"/>
+      <c r="C361" s="66"/>
+      <c r="D361" s="67"/>
+      <c r="E361" s="62"/>
+      <c r="F361" s="57"/>
+      <c r="G361" s="57"/>
+      <c r="H361" s="59"/>
+      <c r="I361" s="55"/>
+    </row>
+    <row r="362" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B362" s="65"/>
+      <c r="C362" s="66"/>
+      <c r="D362" s="67"/>
+      <c r="E362" s="62"/>
+      <c r="F362" s="57"/>
+      <c r="G362" s="57"/>
+      <c r="H362" s="59"/>
+      <c r="I362" s="55"/>
+    </row>
+    <row r="363" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B363" s="65"/>
+      <c r="C363" s="66"/>
+      <c r="D363" s="67"/>
+      <c r="E363" s="62"/>
+      <c r="F363" s="57"/>
+      <c r="G363" s="57"/>
+      <c r="H363" s="59"/>
+      <c r="I363" s="55"/>
+    </row>
+    <row r="364" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B364" s="65"/>
+      <c r="C364" s="66"/>
+      <c r="D364" s="67"/>
+      <c r="E364" s="62"/>
+      <c r="F364" s="57"/>
+      <c r="G364" s="57"/>
+      <c r="H364" s="59"/>
+      <c r="I364" s="55"/>
+    </row>
+    <row r="365" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B365" s="65"/>
+      <c r="C365" s="66"/>
+      <c r="D365" s="67"/>
+      <c r="E365" s="62"/>
+      <c r="F365" s="57"/>
+      <c r="G365" s="58"/>
+      <c r="H365" s="59"/>
+      <c r="I365" s="55"/>
+    </row>
+    <row r="366" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B366" s="65"/>
+      <c r="C366" s="66"/>
+      <c r="D366" s="67"/>
+      <c r="E366" s="62"/>
+      <c r="F366" s="57"/>
+      <c r="G366" s="58"/>
+      <c r="H366" s="59"/>
+      <c r="I366" s="55"/>
+    </row>
+    <row r="367" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B367" s="65"/>
+      <c r="C367" s="66"/>
+      <c r="D367" s="67"/>
+      <c r="E367" s="62"/>
+      <c r="F367" s="58"/>
+      <c r="G367" s="58"/>
+      <c r="H367" s="59"/>
+      <c r="I367" s="55"/>
+    </row>
+    <row r="369" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B369" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C369" s="69"/>
+      <c r="D369" s="70"/>
+      <c r="E369" s="70"/>
+      <c r="F369" s="71"/>
+      <c r="G369" s="71"/>
+      <c r="H369" s="71"/>
+      <c r="I369" s="72"/>
+    </row>
+    <row r="370" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B370" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C370" s="74"/>
+      <c r="D370" s="75"/>
+      <c r="E370" s="75"/>
+      <c r="F370" s="76"/>
+      <c r="G370" s="76"/>
+      <c r="H370" s="76"/>
+      <c r="I370" s="77"/>
+    </row>
+    <row r="371" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B371" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C371" s="74"/>
+      <c r="D371" s="75"/>
+      <c r="E371" s="75"/>
+      <c r="F371" s="76"/>
+      <c r="G371" s="76"/>
+      <c r="H371" s="76"/>
+      <c r="I371" s="77"/>
+    </row>
+    <row r="372" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B372" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C372" s="74"/>
+      <c r="D372" s="75"/>
+      <c r="E372" s="75"/>
+      <c r="F372" s="76"/>
+      <c r="G372" s="76"/>
+      <c r="H372" s="76"/>
+      <c r="I372" s="77"/>
+    </row>
+    <row r="373" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B373" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C373" s="74"/>
+      <c r="D373" s="75"/>
+      <c r="E373" s="75"/>
+      <c r="F373" s="76"/>
+      <c r="G373" s="76"/>
+      <c r="H373" s="76"/>
+      <c r="I373" s="77"/>
+    </row>
+    <row r="374" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B374" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C374" s="74"/>
+      <c r="D374" s="75"/>
+      <c r="E374" s="75"/>
+      <c r="F374" s="76"/>
+      <c r="G374" s="76"/>
+      <c r="H374" s="76"/>
+      <c r="I374" s="77"/>
+    </row>
+    <row r="375" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B375" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C375" s="79"/>
+      <c r="D375" s="80"/>
+      <c r="E375" s="80"/>
+      <c r="F375" s="81"/>
+      <c r="G375" s="81"/>
+      <c r="H375" s="81"/>
+      <c r="I375" s="82"/>
+    </row>
+    <row r="377" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F377" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G377" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H377" s="84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="378" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F378" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G378" s="87">
         <v>81</v>
       </c>
-      <c r="E20" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-    </row>
-    <row r="21" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A21" s="44">
+      <c r="H378" s="88">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="379" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F379" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="G379" s="88">
         <v>16</v>
       </c>
-      <c r="B21" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="57"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A22" s="44">
-        <v>17</v>
-      </c>
-      <c r="B22" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A23" s="44">
-        <v>18</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
-    </row>
-    <row r="24" spans="1:9" ht="49.5">
-      <c r="A24" s="44">
-        <v>19</v>
-      </c>
-      <c r="B24" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="57"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="57"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="57"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="57"/>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="57"/>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="57"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="57"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="57"/>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="57"/>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="57"/>
-    </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="57"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="57"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="57"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="64"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="57"/>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="57"/>
-    </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="64"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="57"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="64"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="57"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="57"/>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="57"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="57"/>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="57"/>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="64"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="57"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="64"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="57"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="57"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="64"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="57"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="61"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="57"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="64"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="57"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="64"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="57"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="64"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="57"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="64"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="57"/>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="57"/>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="64"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="57"/>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="64"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="57"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="64"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="57"/>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="64"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="57"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="64"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="57"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="64"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="57"/>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="64"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="57"/>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="64"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="57"/>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="64"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="57"/>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="64"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="57"/>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="64"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="57"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="64"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="57"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="64"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="57"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="64"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="57"/>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" s="64"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="61"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="57"/>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" s="64"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="61"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="57"/>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" s="64"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="61"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="57"/>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" s="64"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="57"/>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" s="64"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="61"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="57"/>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" s="64"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="61"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="57"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="B83" s="64"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="57"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" s="64"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="61"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="57"/>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="64"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="57"/>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="64"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="57"/>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="64"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="57"/>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="57"/>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="B89" s="64"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="57"/>
-    </row>
-    <row r="90" spans="2:9">
-      <c r="B90" s="64"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="57"/>
-    </row>
-    <row r="91" spans="2:9">
-      <c r="B91" s="64"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="57"/>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="64"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="61"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="57"/>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="64"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="57"/>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="B94" s="64"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="57"/>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="B95" s="64"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="57"/>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="B96" s="64"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="61"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="57"/>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="64"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="57"/>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="64"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="61"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="57"/>
-    </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="64"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="61"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="57"/>
-    </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="64"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="61"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="57"/>
-    </row>
-    <row r="101" spans="2:9">
-      <c r="B101" s="64"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="57"/>
-    </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="64"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="61"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="57"/>
-    </row>
-    <row r="103" spans="2:9">
-      <c r="B103" s="64"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="57"/>
-    </row>
-    <row r="104" spans="2:9">
-      <c r="B104" s="64"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="61"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="57"/>
-    </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="64"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="57"/>
-    </row>
-    <row r="106" spans="2:9">
-      <c r="B106" s="64"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="61"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="57"/>
-    </row>
-    <row r="107" spans="2:9">
-      <c r="B107" s="64"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="60"/>
-      <c r="G107" s="61"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="57"/>
-    </row>
-    <row r="108" spans="2:9">
-      <c r="B108" s="64"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="61"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="57"/>
-    </row>
-    <row r="109" spans="2:9">
-      <c r="B109" s="64"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="60"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="56"/>
-      <c r="I109" s="57"/>
-    </row>
-    <row r="110" spans="2:9">
-      <c r="B110" s="64"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="60"/>
-      <c r="G110" s="61"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="57"/>
-    </row>
-    <row r="111" spans="2:9">
-      <c r="B111" s="64"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="60"/>
-      <c r="G111" s="61"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="57"/>
-    </row>
-    <row r="112" spans="2:9">
-      <c r="B112" s="64"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="57"/>
-    </row>
-    <row r="113" spans="2:9">
-      <c r="B113" s="64"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="60"/>
-      <c r="G113" s="61"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="57"/>
-    </row>
-    <row r="114" spans="2:9">
-      <c r="B114" s="64"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="61"/>
-      <c r="H114" s="56"/>
-      <c r="I114" s="57"/>
-    </row>
-    <row r="115" spans="2:9">
-      <c r="B115" s="64"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="60"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="57"/>
-    </row>
-    <row r="116" spans="2:9">
-      <c r="B116" s="64"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="60"/>
-      <c r="G116" s="61"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="57"/>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="B117" s="64"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="60"/>
-      <c r="G117" s="61"/>
-      <c r="H117" s="56"/>
-      <c r="I117" s="57"/>
-    </row>
-    <row r="118" spans="2:9">
-      <c r="B118" s="64"/>
-      <c r="C118" s="65"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="60"/>
-      <c r="G118" s="61"/>
-      <c r="H118" s="56"/>
-      <c r="I118" s="57"/>
-    </row>
-    <row r="119" spans="2:9">
-      <c r="B119" s="64"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="65"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="60"/>
-      <c r="G119" s="61"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="57"/>
-    </row>
-    <row r="120" spans="2:9">
-      <c r="B120" s="64"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="60"/>
-      <c r="G120" s="61"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="57"/>
-    </row>
-    <row r="121" spans="2:9">
-      <c r="B121" s="64"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="65"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="61"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="57"/>
-    </row>
-    <row r="122" spans="2:9">
-      <c r="B122" s="64"/>
-      <c r="C122" s="65"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="60"/>
-      <c r="G122" s="61"/>
-      <c r="H122" s="56"/>
-      <c r="I122" s="57"/>
-    </row>
-    <row r="123" spans="2:9">
-      <c r="B123" s="64"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="60"/>
-      <c r="G123" s="61"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="57"/>
-    </row>
-    <row r="124" spans="2:9">
-      <c r="B124" s="64"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="60"/>
-      <c r="G124" s="61"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="57"/>
-    </row>
-    <row r="125" spans="2:9">
-      <c r="B125" s="64"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="60"/>
-      <c r="G125" s="61"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="57"/>
-    </row>
-    <row r="126" spans="2:9">
-      <c r="B126" s="64"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="60"/>
-      <c r="G126" s="61"/>
-      <c r="H126" s="56"/>
-      <c r="I126" s="57"/>
-    </row>
-    <row r="127" spans="2:9">
-      <c r="B127" s="64"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="61"/>
-      <c r="H127" s="56"/>
-      <c r="I127" s="57"/>
-    </row>
-    <row r="128" spans="2:9">
-      <c r="B128" s="64"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="60"/>
-      <c r="G128" s="61"/>
-      <c r="H128" s="56"/>
-      <c r="I128" s="57"/>
-    </row>
-    <row r="129" spans="2:9">
-      <c r="B129" s="64"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="66"/>
-      <c r="F129" s="60"/>
-      <c r="G129" s="61"/>
-      <c r="H129" s="56"/>
-      <c r="I129" s="57"/>
-    </row>
-    <row r="130" spans="2:9">
-      <c r="B130" s="64"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="60"/>
-      <c r="G130" s="61"/>
-      <c r="H130" s="56"/>
-      <c r="I130" s="57"/>
-    </row>
-    <row r="131" spans="2:9">
-      <c r="B131" s="64"/>
-      <c r="C131" s="65"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="66"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="56"/>
-      <c r="I131" s="57"/>
-    </row>
-    <row r="132" spans="2:9">
-      <c r="B132" s="64"/>
-      <c r="C132" s="65"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="60"/>
-      <c r="G132" s="61"/>
-      <c r="H132" s="56"/>
-      <c r="I132" s="57"/>
-    </row>
-    <row r="133" spans="2:9">
-      <c r="B133" s="64"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="60"/>
-      <c r="G133" s="61"/>
-      <c r="H133" s="56"/>
-      <c r="I133" s="57"/>
-    </row>
-    <row r="134" spans="2:9">
-      <c r="B134" s="64"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="66"/>
-      <c r="F134" s="60"/>
-      <c r="G134" s="61"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="57"/>
-    </row>
-    <row r="135" spans="2:9">
-      <c r="B135" s="64"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="66"/>
-      <c r="F135" s="60"/>
-      <c r="G135" s="61"/>
-      <c r="H135" s="56"/>
-      <c r="I135" s="57"/>
-    </row>
-    <row r="136" spans="2:9">
-      <c r="B136" s="64"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="66"/>
-      <c r="F136" s="60"/>
-      <c r="G136" s="61"/>
-      <c r="H136" s="56"/>
-      <c r="I136" s="57"/>
-    </row>
-    <row r="137" spans="2:9">
-      <c r="B137" s="64"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="65"/>
-      <c r="E137" s="66"/>
-      <c r="F137" s="60"/>
-      <c r="G137" s="61"/>
-      <c r="H137" s="56"/>
-      <c r="I137" s="57"/>
-    </row>
-    <row r="138" spans="2:9">
-      <c r="B138" s="64"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="66"/>
-      <c r="F138" s="60"/>
-      <c r="G138" s="61"/>
-      <c r="H138" s="56"/>
-      <c r="I138" s="57"/>
-    </row>
-    <row r="139" spans="2:9">
-      <c r="B139" s="64"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="65"/>
-      <c r="E139" s="66"/>
-      <c r="F139" s="60"/>
-      <c r="G139" s="61"/>
-      <c r="H139" s="56"/>
-      <c r="I139" s="57"/>
-    </row>
-    <row r="140" spans="2:9">
-      <c r="B140" s="64"/>
-      <c r="C140" s="65"/>
-      <c r="D140" s="65"/>
-      <c r="E140" s="66"/>
-      <c r="F140" s="60"/>
-      <c r="G140" s="61"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="57"/>
-    </row>
-    <row r="141" spans="2:9">
-      <c r="B141" s="64"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="65"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="60"/>
-      <c r="G141" s="61"/>
-      <c r="H141" s="56"/>
-      <c r="I141" s="57"/>
-    </row>
-    <row r="142" spans="2:9">
-      <c r="B142" s="64"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="65"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="60"/>
-      <c r="G142" s="61"/>
-      <c r="H142" s="56"/>
-      <c r="I142" s="57"/>
-    </row>
-    <row r="143" spans="2:9">
-      <c r="B143" s="64"/>
-      <c r="C143" s="65"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="60"/>
-      <c r="G143" s="61"/>
-      <c r="H143" s="56"/>
-      <c r="I143" s="57"/>
-    </row>
-    <row r="144" spans="2:9">
-      <c r="B144" s="64"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="66"/>
-      <c r="F144" s="60"/>
-      <c r="G144" s="61"/>
-      <c r="H144" s="56"/>
-      <c r="I144" s="57"/>
-    </row>
-    <row r="145" spans="2:9">
-      <c r="B145" s="64"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="65"/>
-      <c r="E145" s="66"/>
-      <c r="F145" s="60"/>
-      <c r="G145" s="61"/>
-      <c r="H145" s="56"/>
-      <c r="I145" s="57"/>
-    </row>
-    <row r="146" spans="2:9">
-      <c r="B146" s="64"/>
-      <c r="C146" s="65"/>
-      <c r="D146" s="65"/>
-      <c r="E146" s="66"/>
-      <c r="F146" s="60"/>
-      <c r="G146" s="61"/>
-      <c r="H146" s="56"/>
-      <c r="I146" s="57"/>
-    </row>
-    <row r="147" spans="2:9">
-      <c r="B147" s="64"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="60"/>
-      <c r="G147" s="61"/>
-      <c r="H147" s="56"/>
-      <c r="I147" s="57"/>
-    </row>
-    <row r="148" spans="2:9">
-      <c r="B148" s="64"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="66"/>
-      <c r="F148" s="60"/>
-      <c r="G148" s="61"/>
-      <c r="H148" s="56"/>
-      <c r="I148" s="57"/>
-    </row>
-    <row r="149" spans="2:9">
-      <c r="B149" s="64"/>
-      <c r="C149" s="65"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="66"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="61"/>
-      <c r="H149" s="56"/>
-      <c r="I149" s="57"/>
-    </row>
-    <row r="150" spans="2:9">
-      <c r="B150" s="64"/>
-      <c r="C150" s="65"/>
-      <c r="D150" s="65"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="60"/>
-      <c r="G150" s="61"/>
-      <c r="H150" s="56"/>
-      <c r="I150" s="57"/>
-    </row>
-    <row r="151" spans="2:9">
-      <c r="B151" s="64"/>
-      <c r="C151" s="65"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="66"/>
-      <c r="F151" s="60"/>
-      <c r="G151" s="61"/>
-      <c r="H151" s="56"/>
-      <c r="I151" s="57"/>
-    </row>
-    <row r="152" spans="2:9">
-      <c r="B152" s="64"/>
-      <c r="C152" s="65"/>
-      <c r="D152" s="65"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="60"/>
-      <c r="G152" s="61"/>
-      <c r="H152" s="56"/>
-      <c r="I152" s="57"/>
-    </row>
-    <row r="153" spans="2:9">
-      <c r="B153" s="64"/>
-      <c r="C153" s="65"/>
-      <c r="D153" s="65"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="61"/>
-      <c r="H153" s="56"/>
-      <c r="I153" s="57"/>
-    </row>
-    <row r="154" spans="2:9">
-      <c r="B154" s="64"/>
-      <c r="C154" s="65"/>
-      <c r="D154" s="65"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="60"/>
-      <c r="G154" s="61"/>
-      <c r="H154" s="56"/>
-      <c r="I154" s="57"/>
-    </row>
-    <row r="155" spans="2:9">
-      <c r="B155" s="64"/>
-      <c r="C155" s="65"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="66"/>
-      <c r="F155" s="60"/>
-      <c r="G155" s="61"/>
-      <c r="H155" s="56"/>
-      <c r="I155" s="57"/>
-    </row>
-    <row r="156" spans="2:9">
-      <c r="B156" s="64"/>
-      <c r="C156" s="65"/>
-      <c r="D156" s="65"/>
-      <c r="E156" s="66"/>
-      <c r="F156" s="60"/>
-      <c r="G156" s="61"/>
-      <c r="H156" s="56"/>
-      <c r="I156" s="57"/>
-    </row>
-    <row r="157" spans="2:9">
-      <c r="B157" s="64"/>
-      <c r="C157" s="65"/>
-      <c r="D157" s="65"/>
-      <c r="E157" s="66"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="61"/>
-      <c r="H157" s="56"/>
-      <c r="I157" s="57"/>
-    </row>
-    <row r="158" spans="2:9">
-      <c r="B158" s="64"/>
-      <c r="C158" s="65"/>
-      <c r="D158" s="65"/>
-      <c r="E158" s="66"/>
-      <c r="F158" s="60"/>
-      <c r="G158" s="61"/>
-      <c r="H158" s="56"/>
-      <c r="I158" s="57"/>
-    </row>
-    <row r="159" spans="2:9">
-      <c r="B159" s="64"/>
-      <c r="C159" s="65"/>
-      <c r="D159" s="65"/>
-      <c r="E159" s="66"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="61"/>
-      <c r="H159" s="56"/>
-      <c r="I159" s="57"/>
-    </row>
-    <row r="160" spans="2:9">
-      <c r="B160" s="64"/>
-      <c r="C160" s="65"/>
-      <c r="D160" s="65"/>
-      <c r="E160" s="66"/>
-      <c r="F160" s="60"/>
-      <c r="G160" s="61"/>
-      <c r="H160" s="56"/>
-      <c r="I160" s="57"/>
-    </row>
-    <row r="161" spans="2:9">
-      <c r="B161" s="64"/>
-      <c r="C161" s="65"/>
-      <c r="D161" s="65"/>
-      <c r="E161" s="66"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="61"/>
-      <c r="H161" s="56"/>
-      <c r="I161" s="57"/>
-    </row>
-    <row r="162" spans="2:9">
-      <c r="B162" s="64"/>
-      <c r="C162" s="65"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="66"/>
-      <c r="F162" s="60"/>
-      <c r="G162" s="61"/>
-      <c r="H162" s="56"/>
-      <c r="I162" s="57"/>
-    </row>
-    <row r="163" spans="2:9">
-      <c r="B163" s="64"/>
-      <c r="C163" s="65"/>
-      <c r="D163" s="65"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="60"/>
-      <c r="G163" s="61"/>
-      <c r="H163" s="56"/>
-      <c r="I163" s="57"/>
-    </row>
-    <row r="164" spans="2:9">
-      <c r="B164" s="64"/>
-      <c r="C164" s="65"/>
-      <c r="D164" s="65"/>
-      <c r="E164" s="66"/>
-      <c r="F164" s="60"/>
-      <c r="G164" s="61"/>
-      <c r="H164" s="56"/>
-      <c r="I164" s="57"/>
-    </row>
-    <row r="165" spans="2:9">
-      <c r="B165" s="64"/>
-      <c r="C165" s="65"/>
-      <c r="D165" s="65"/>
-      <c r="E165" s="66"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="61"/>
-      <c r="H165" s="56"/>
-      <c r="I165" s="57"/>
-    </row>
-    <row r="166" spans="2:9">
-      <c r="B166" s="64"/>
-      <c r="C166" s="65"/>
-      <c r="D166" s="65"/>
-      <c r="E166" s="66"/>
-      <c r="F166" s="60"/>
-      <c r="G166" s="61"/>
-      <c r="H166" s="56"/>
-      <c r="I166" s="57"/>
-    </row>
-    <row r="167" spans="2:9">
-      <c r="B167" s="64"/>
-      <c r="C167" s="65"/>
-      <c r="D167" s="65"/>
-      <c r="E167" s="66"/>
-      <c r="F167" s="60"/>
-      <c r="G167" s="61"/>
-      <c r="H167" s="56"/>
-      <c r="I167" s="57"/>
-    </row>
-    <row r="168" spans="2:9">
-      <c r="B168" s="64"/>
-      <c r="C168" s="65"/>
-      <c r="D168" s="65"/>
-      <c r="E168" s="66"/>
-      <c r="F168" s="60"/>
-      <c r="G168" s="61"/>
-      <c r="H168" s="56"/>
-      <c r="I168" s="57"/>
-    </row>
-    <row r="169" spans="2:9">
-      <c r="B169" s="64"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="66"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="61"/>
-      <c r="H169" s="56"/>
-      <c r="I169" s="57"/>
-    </row>
-    <row r="170" spans="2:9">
-      <c r="B170" s="64"/>
-      <c r="C170" s="65"/>
-      <c r="D170" s="65"/>
-      <c r="E170" s="66"/>
-      <c r="F170" s="60"/>
-      <c r="G170" s="61"/>
-      <c r="H170" s="56"/>
-      <c r="I170" s="57"/>
-    </row>
-    <row r="171" spans="2:9">
-      <c r="B171" s="64"/>
-      <c r="C171" s="65"/>
-      <c r="D171" s="65"/>
-      <c r="E171" s="66"/>
-      <c r="F171" s="60"/>
-      <c r="G171" s="61"/>
-      <c r="H171" s="56"/>
-      <c r="I171" s="57"/>
-    </row>
-    <row r="172" spans="2:9">
-      <c r="B172" s="64"/>
-      <c r="C172" s="65"/>
-      <c r="D172" s="65"/>
-      <c r="E172" s="66"/>
-      <c r="F172" s="60"/>
-      <c r="G172" s="61"/>
-      <c r="H172" s="56"/>
-      <c r="I172" s="57"/>
-    </row>
-    <row r="173" spans="2:9">
-      <c r="B173" s="64"/>
-      <c r="C173" s="65"/>
-      <c r="D173" s="65"/>
-      <c r="E173" s="66"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="61"/>
-      <c r="H173" s="56"/>
-      <c r="I173" s="57"/>
-    </row>
-    <row r="174" spans="2:9">
-      <c r="B174" s="64"/>
-      <c r="C174" s="65"/>
-      <c r="D174" s="65"/>
-      <c r="E174" s="66"/>
-      <c r="F174" s="60"/>
-      <c r="G174" s="61"/>
-      <c r="H174" s="56"/>
-      <c r="I174" s="57"/>
-    </row>
-    <row r="175" spans="2:9">
-      <c r="B175" s="64"/>
-      <c r="C175" s="65"/>
-      <c r="D175" s="65"/>
-      <c r="E175" s="66"/>
-      <c r="F175" s="60"/>
-      <c r="G175" s="61"/>
-      <c r="H175" s="56"/>
-      <c r="I175" s="57"/>
-    </row>
-    <row r="176" spans="2:9">
-      <c r="B176" s="64"/>
-      <c r="C176" s="65"/>
-      <c r="D176" s="65"/>
-      <c r="E176" s="66"/>
-      <c r="F176" s="60"/>
-      <c r="G176" s="61"/>
-      <c r="H176" s="56"/>
-      <c r="I176" s="57"/>
-    </row>
-    <row r="177" spans="2:9">
-      <c r="B177" s="64"/>
-      <c r="C177" s="65"/>
-      <c r="D177" s="65"/>
-      <c r="E177" s="66"/>
-      <c r="F177" s="60"/>
-      <c r="G177" s="61"/>
-      <c r="H177" s="56"/>
-      <c r="I177" s="57"/>
-    </row>
-    <row r="178" spans="2:9">
-      <c r="B178" s="64"/>
-      <c r="C178" s="65"/>
-      <c r="D178" s="65"/>
-      <c r="E178" s="66"/>
-      <c r="F178" s="60"/>
-      <c r="G178" s="61"/>
-      <c r="H178" s="56"/>
-      <c r="I178" s="57"/>
-    </row>
-    <row r="179" spans="2:9">
-      <c r="B179" s="64"/>
-      <c r="C179" s="65"/>
-      <c r="D179" s="65"/>
-      <c r="E179" s="66"/>
-      <c r="F179" s="60"/>
-      <c r="G179" s="61"/>
-      <c r="H179" s="56"/>
-      <c r="I179" s="57"/>
-    </row>
-    <row r="180" spans="2:9">
-      <c r="B180" s="64"/>
-      <c r="C180" s="65"/>
-      <c r="D180" s="65"/>
-      <c r="E180" s="66"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="61"/>
-      <c r="H180" s="56"/>
-      <c r="I180" s="57"/>
-    </row>
-    <row r="181" spans="2:9">
-      <c r="B181" s="64"/>
-      <c r="C181" s="65"/>
-      <c r="D181" s="65"/>
-      <c r="E181" s="66"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="61"/>
-      <c r="H181" s="56"/>
-      <c r="I181" s="57"/>
-    </row>
-    <row r="182" spans="2:9">
-      <c r="B182" s="64"/>
-      <c r="C182" s="65"/>
-      <c r="D182" s="65"/>
-      <c r="E182" s="66"/>
-      <c r="F182" s="60"/>
-      <c r="G182" s="61"/>
-      <c r="H182" s="56"/>
-      <c r="I182" s="57"/>
-    </row>
-    <row r="183" spans="2:9">
-      <c r="B183" s="64"/>
-      <c r="C183" s="65"/>
-      <c r="D183" s="65"/>
-      <c r="E183" s="66"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="61"/>
-      <c r="H183" s="56"/>
-      <c r="I183" s="57"/>
-    </row>
-    <row r="184" spans="2:9">
-      <c r="B184" s="64"/>
-      <c r="C184" s="65"/>
-      <c r="D184" s="65"/>
-      <c r="E184" s="66"/>
-      <c r="F184" s="60"/>
-      <c r="G184" s="61"/>
-      <c r="H184" s="56"/>
-      <c r="I184" s="57"/>
-    </row>
-    <row r="185" spans="2:9">
-      <c r="B185" s="64"/>
-      <c r="C185" s="65"/>
-      <c r="D185" s="65"/>
-      <c r="E185" s="66"/>
-      <c r="F185" s="60"/>
-      <c r="G185" s="61"/>
-      <c r="H185" s="56"/>
-      <c r="I185" s="57"/>
-    </row>
-    <row r="186" spans="2:9">
-      <c r="B186" s="64"/>
-      <c r="C186" s="65"/>
-      <c r="D186" s="65"/>
-      <c r="E186" s="66"/>
-      <c r="F186" s="60"/>
-      <c r="G186" s="61"/>
-      <c r="H186" s="56"/>
-      <c r="I186" s="57"/>
-    </row>
-    <row r="187" spans="2:9">
-      <c r="B187" s="64"/>
-      <c r="C187" s="65"/>
-      <c r="D187" s="65"/>
-      <c r="E187" s="66"/>
-      <c r="F187" s="60"/>
-      <c r="G187" s="61"/>
-      <c r="H187" s="56"/>
-      <c r="I187" s="57"/>
-    </row>
-    <row r="188" spans="2:9">
-      <c r="B188" s="64"/>
-      <c r="C188" s="65"/>
-      <c r="D188" s="65"/>
-      <c r="E188" s="66"/>
-      <c r="F188" s="60"/>
-      <c r="G188" s="61"/>
-      <c r="H188" s="56"/>
-      <c r="I188" s="57"/>
-    </row>
-    <row r="189" spans="2:9">
-      <c r="B189" s="64"/>
-      <c r="C189" s="65"/>
-      <c r="D189" s="65"/>
-      <c r="E189" s="66"/>
-      <c r="F189" s="60"/>
-      <c r="G189" s="61"/>
-      <c r="H189" s="56"/>
-      <c r="I189" s="57"/>
-    </row>
-    <row r="190" spans="2:9">
-      <c r="B190" s="64"/>
-      <c r="C190" s="65"/>
-      <c r="D190" s="65"/>
-      <c r="E190" s="66"/>
-      <c r="F190" s="60"/>
-      <c r="G190" s="61"/>
-      <c r="H190" s="56"/>
-      <c r="I190" s="57"/>
-    </row>
-    <row r="191" spans="2:9">
-      <c r="B191" s="64"/>
-      <c r="C191" s="65"/>
-      <c r="D191" s="65"/>
-      <c r="E191" s="66"/>
-      <c r="F191" s="60"/>
-      <c r="G191" s="61"/>
-      <c r="H191" s="56"/>
-      <c r="I191" s="57"/>
-    </row>
-    <row r="192" spans="2:9">
-      <c r="B192" s="64"/>
-      <c r="C192" s="65"/>
-      <c r="D192" s="65"/>
-      <c r="E192" s="66"/>
-      <c r="F192" s="60"/>
-      <c r="G192" s="61"/>
-      <c r="H192" s="56"/>
-      <c r="I192" s="57"/>
-    </row>
-    <row r="193" spans="2:9">
-      <c r="B193" s="64"/>
-      <c r="C193" s="65"/>
-      <c r="D193" s="65"/>
-      <c r="E193" s="66"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="61"/>
-      <c r="H193" s="56"/>
-      <c r="I193" s="57"/>
-    </row>
-    <row r="194" spans="2:9">
-      <c r="B194" s="64"/>
-      <c r="C194" s="65"/>
-      <c r="D194" s="65"/>
-      <c r="E194" s="66"/>
-      <c r="F194" s="60"/>
-      <c r="G194" s="61"/>
-      <c r="H194" s="56"/>
-      <c r="I194" s="57"/>
-    </row>
-    <row r="195" spans="2:9">
-      <c r="B195" s="64"/>
-      <c r="C195" s="65"/>
-      <c r="D195" s="65"/>
-      <c r="E195" s="66"/>
-      <c r="F195" s="60"/>
-      <c r="G195" s="61"/>
-      <c r="H195" s="56"/>
-      <c r="I195" s="57"/>
-    </row>
-    <row r="196" spans="2:9">
-      <c r="B196" s="64"/>
-      <c r="C196" s="65"/>
-      <c r="D196" s="65"/>
-      <c r="E196" s="66"/>
-      <c r="F196" s="60"/>
-      <c r="G196" s="61"/>
-      <c r="H196" s="56"/>
-      <c r="I196" s="57"/>
-    </row>
-    <row r="197" spans="2:9">
-      <c r="B197" s="64"/>
-      <c r="C197" s="65"/>
-      <c r="D197" s="65"/>
-      <c r="E197" s="66"/>
-      <c r="F197" s="60"/>
-      <c r="G197" s="61"/>
-      <c r="H197" s="56"/>
-      <c r="I197" s="57"/>
-    </row>
-    <row r="198" spans="2:9">
-      <c r="B198" s="64"/>
-      <c r="C198" s="65"/>
-      <c r="D198" s="65"/>
-      <c r="E198" s="66"/>
-      <c r="F198" s="60"/>
-      <c r="G198" s="61"/>
-      <c r="H198" s="56"/>
-      <c r="I198" s="57"/>
-    </row>
-    <row r="199" spans="2:9">
-      <c r="B199" s="64"/>
-      <c r="C199" s="65"/>
-      <c r="D199" s="65"/>
-      <c r="E199" s="66"/>
-      <c r="F199" s="60"/>
-      <c r="G199" s="61"/>
-      <c r="H199" s="56"/>
-      <c r="I199" s="57"/>
-    </row>
-    <row r="200" spans="2:9">
-      <c r="B200" s="64"/>
-      <c r="C200" s="65"/>
-      <c r="D200" s="65"/>
-      <c r="E200" s="66"/>
-      <c r="F200" s="60"/>
-      <c r="G200" s="61"/>
-      <c r="H200" s="56"/>
-      <c r="I200" s="57"/>
-    </row>
-    <row r="201" spans="2:9">
-      <c r="B201" s="64"/>
-      <c r="C201" s="65"/>
-      <c r="D201" s="65"/>
-      <c r="E201" s="66"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="61"/>
-      <c r="H201" s="56"/>
-      <c r="I201" s="57"/>
-    </row>
-    <row r="202" spans="2:9">
-      <c r="B202" s="64"/>
-      <c r="C202" s="65"/>
-      <c r="D202" s="65"/>
-      <c r="E202" s="66"/>
-      <c r="F202" s="60"/>
-      <c r="G202" s="61"/>
-      <c r="H202" s="56"/>
-      <c r="I202" s="57"/>
-    </row>
-    <row r="203" spans="2:9">
-      <c r="B203" s="64"/>
-      <c r="C203" s="65"/>
-      <c r="D203" s="65"/>
-      <c r="E203" s="66"/>
-      <c r="F203" s="60"/>
-      <c r="G203" s="61"/>
-      <c r="H203" s="56"/>
-      <c r="I203" s="57"/>
-    </row>
-    <row r="204" spans="2:9">
-      <c r="B204" s="64"/>
-      <c r="C204" s="65"/>
-      <c r="D204" s="65"/>
-      <c r="E204" s="66"/>
-      <c r="F204" s="60"/>
-      <c r="G204" s="61"/>
-      <c r="H204" s="56"/>
-      <c r="I204" s="57"/>
-    </row>
-    <row r="205" spans="2:9">
-      <c r="B205" s="64"/>
-      <c r="C205" s="65"/>
-      <c r="D205" s="65"/>
-      <c r="E205" s="66"/>
-      <c r="F205" s="60"/>
-      <c r="G205" s="61"/>
-      <c r="H205" s="56"/>
-      <c r="I205" s="57"/>
-    </row>
-    <row r="206" spans="2:9">
-      <c r="B206" s="64"/>
-      <c r="C206" s="65"/>
-      <c r="D206" s="65"/>
-      <c r="E206" s="66"/>
-      <c r="F206" s="60"/>
-      <c r="G206" s="61"/>
-      <c r="H206" s="56"/>
-      <c r="I206" s="57"/>
-    </row>
-    <row r="207" spans="2:9">
-      <c r="B207" s="64"/>
-      <c r="C207" s="65"/>
-      <c r="D207" s="65"/>
-      <c r="E207" s="66"/>
-      <c r="F207" s="60"/>
-      <c r="G207" s="61"/>
-      <c r="H207" s="56"/>
-      <c r="I207" s="57"/>
-    </row>
-    <row r="208" spans="2:9">
-      <c r="B208" s="64"/>
-      <c r="C208" s="65"/>
-      <c r="D208" s="65"/>
-      <c r="E208" s="66"/>
-      <c r="F208" s="60"/>
-      <c r="G208" s="61"/>
-      <c r="H208" s="56"/>
-      <c r="I208" s="57"/>
-    </row>
-    <row r="209" spans="2:9">
-      <c r="B209" s="64"/>
-      <c r="C209" s="65"/>
-      <c r="D209" s="65"/>
-      <c r="E209" s="66"/>
-      <c r="F209" s="60"/>
-      <c r="G209" s="61"/>
-      <c r="H209" s="56"/>
-      <c r="I209" s="57"/>
-    </row>
-    <row r="210" spans="2:9">
-      <c r="B210" s="64"/>
-      <c r="C210" s="65"/>
-      <c r="D210" s="65"/>
-      <c r="E210" s="66"/>
-      <c r="F210" s="60"/>
-      <c r="G210" s="61"/>
-      <c r="H210" s="56"/>
-      <c r="I210" s="57"/>
-    </row>
-    <row r="211" spans="2:9">
-      <c r="B211" s="64"/>
-      <c r="C211" s="65"/>
-      <c r="D211" s="65"/>
-      <c r="E211" s="66"/>
-      <c r="F211" s="60"/>
-      <c r="G211" s="61"/>
-      <c r="H211" s="56"/>
-      <c r="I211" s="57"/>
-    </row>
-    <row r="212" spans="2:9">
-      <c r="B212" s="64"/>
-      <c r="C212" s="65"/>
-      <c r="D212" s="65"/>
-      <c r="E212" s="66"/>
-      <c r="F212" s="60"/>
-      <c r="G212" s="61"/>
-      <c r="H212" s="56"/>
-      <c r="I212" s="57"/>
-    </row>
-    <row r="213" spans="2:9">
-      <c r="B213" s="64"/>
-      <c r="C213" s="65"/>
-      <c r="D213" s="65"/>
-      <c r="E213" s="66"/>
-      <c r="F213" s="60"/>
-      <c r="G213" s="61"/>
-      <c r="H213" s="56"/>
-      <c r="I213" s="57"/>
-    </row>
-    <row r="214" spans="2:9">
-      <c r="B214" s="64"/>
-      <c r="C214" s="65"/>
-      <c r="D214" s="65"/>
-      <c r="E214" s="66"/>
-      <c r="F214" s="60"/>
-      <c r="G214" s="61"/>
-      <c r="H214" s="56"/>
-      <c r="I214" s="57"/>
-    </row>
-    <row r="215" spans="2:9">
-      <c r="B215" s="64"/>
-      <c r="C215" s="65"/>
-      <c r="D215" s="65"/>
-      <c r="E215" s="66"/>
-      <c r="F215" s="60"/>
-      <c r="G215" s="61"/>
-      <c r="H215" s="56"/>
-      <c r="I215" s="57"/>
-    </row>
-    <row r="216" spans="2:9">
-      <c r="B216" s="64"/>
-      <c r="C216" s="65"/>
-      <c r="D216" s="65"/>
-      <c r="E216" s="66"/>
-      <c r="F216" s="60"/>
-      <c r="G216" s="61"/>
-      <c r="H216" s="56"/>
-      <c r="I216" s="57"/>
-    </row>
-    <row r="217" spans="2:9">
-      <c r="B217" s="64"/>
-      <c r="C217" s="65"/>
-      <c r="D217" s="65"/>
-      <c r="E217" s="66"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="61"/>
-      <c r="H217" s="56"/>
-      <c r="I217" s="57"/>
-    </row>
-    <row r="218" spans="2:9">
-      <c r="B218" s="64"/>
-      <c r="C218" s="65"/>
-      <c r="D218" s="65"/>
-      <c r="E218" s="66"/>
-      <c r="F218" s="60"/>
-      <c r="G218" s="61"/>
-      <c r="H218" s="56"/>
-      <c r="I218" s="57"/>
-    </row>
-    <row r="219" spans="2:9">
-      <c r="B219" s="64"/>
-      <c r="C219" s="65"/>
-      <c r="D219" s="65"/>
-      <c r="E219" s="66"/>
-      <c r="F219" s="60"/>
-      <c r="G219" s="61"/>
-      <c r="H219" s="56"/>
-      <c r="I219" s="57"/>
-    </row>
-    <row r="220" spans="2:9">
-      <c r="B220" s="64"/>
-      <c r="C220" s="65"/>
-      <c r="D220" s="65"/>
-      <c r="E220" s="66"/>
-      <c r="F220" s="60"/>
-      <c r="G220" s="61"/>
-      <c r="H220" s="56"/>
-      <c r="I220" s="57"/>
-    </row>
-    <row r="221" spans="2:9">
-      <c r="B221" s="64"/>
-      <c r="C221" s="65"/>
-      <c r="D221" s="65"/>
-      <c r="E221" s="66"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="61"/>
-      <c r="H221" s="56"/>
-      <c r="I221" s="57"/>
-    </row>
-    <row r="222" spans="2:9">
-      <c r="B222" s="64"/>
-      <c r="C222" s="65"/>
-      <c r="D222" s="65"/>
-      <c r="E222" s="66"/>
-      <c r="F222" s="60"/>
-      <c r="G222" s="61"/>
-      <c r="H222" s="56"/>
-      <c r="I222" s="57"/>
-    </row>
-    <row r="223" spans="2:9">
-      <c r="B223" s="64"/>
-      <c r="C223" s="65"/>
-      <c r="D223" s="65"/>
-      <c r="E223" s="66"/>
-      <c r="F223" s="60"/>
-      <c r="G223" s="61"/>
-      <c r="H223" s="56"/>
-      <c r="I223" s="57"/>
-    </row>
-    <row r="224" spans="2:9">
-      <c r="B224" s="64"/>
-      <c r="C224" s="65"/>
-      <c r="D224" s="65"/>
-      <c r="E224" s="66"/>
-      <c r="F224" s="60"/>
-      <c r="G224" s="61"/>
-      <c r="H224" s="56"/>
-      <c r="I224" s="57"/>
-    </row>
-    <row r="225" spans="2:9">
-      <c r="B225" s="64"/>
-      <c r="C225" s="65"/>
-      <c r="D225" s="65"/>
-      <c r="E225" s="66"/>
-      <c r="F225" s="60"/>
-      <c r="G225" s="61"/>
-      <c r="H225" s="56"/>
-      <c r="I225" s="57"/>
-    </row>
-    <row r="226" spans="2:9">
-      <c r="B226" s="64"/>
-      <c r="C226" s="65"/>
-      <c r="D226" s="65"/>
-      <c r="E226" s="66"/>
-      <c r="F226" s="60"/>
-      <c r="G226" s="61"/>
-      <c r="H226" s="56"/>
-      <c r="I226" s="57"/>
-    </row>
-    <row r="227" spans="2:9">
-      <c r="B227" s="64"/>
-      <c r="C227" s="65"/>
-      <c r="D227" s="65"/>
-      <c r="E227" s="66"/>
-      <c r="F227" s="60"/>
-      <c r="G227" s="61"/>
-      <c r="H227" s="56"/>
-      <c r="I227" s="57"/>
-    </row>
-    <row r="228" spans="2:9">
-      <c r="B228" s="64"/>
-      <c r="C228" s="65"/>
-      <c r="D228" s="65"/>
-      <c r="E228" s="66"/>
-      <c r="F228" s="60"/>
-      <c r="G228" s="61"/>
-      <c r="H228" s="56"/>
-      <c r="I228" s="57"/>
-    </row>
-    <row r="229" spans="2:9">
-      <c r="B229" s="64"/>
-      <c r="C229" s="65"/>
-      <c r="D229" s="65"/>
-      <c r="E229" s="66"/>
-      <c r="F229" s="60"/>
-      <c r="G229" s="61"/>
-      <c r="H229" s="56"/>
-      <c r="I229" s="57"/>
-    </row>
-    <row r="230" spans="2:9">
-      <c r="B230" s="64"/>
-      <c r="C230" s="65"/>
-      <c r="D230" s="65"/>
-      <c r="E230" s="66"/>
-      <c r="F230" s="60"/>
-      <c r="G230" s="61"/>
-      <c r="H230" s="56"/>
-      <c r="I230" s="57"/>
-    </row>
-    <row r="231" spans="2:9">
-      <c r="B231" s="64"/>
-      <c r="C231" s="65"/>
-      <c r="D231" s="65"/>
-      <c r="E231" s="66"/>
-      <c r="F231" s="60"/>
-      <c r="G231" s="61"/>
-      <c r="H231" s="56"/>
-      <c r="I231" s="57"/>
-    </row>
-    <row r="232" spans="2:9">
-      <c r="B232" s="64"/>
-      <c r="C232" s="65"/>
-      <c r="D232" s="65"/>
-      <c r="E232" s="66"/>
-      <c r="F232" s="60"/>
-      <c r="G232" s="61"/>
-      <c r="H232" s="56"/>
-      <c r="I232" s="57"/>
-    </row>
-    <row r="233" spans="2:9">
-      <c r="B233" s="64"/>
-      <c r="C233" s="65"/>
-      <c r="D233" s="65"/>
-      <c r="E233" s="66"/>
-      <c r="F233" s="60"/>
-      <c r="G233" s="61"/>
-      <c r="H233" s="56"/>
-      <c r="I233" s="57"/>
-    </row>
-    <row r="234" spans="2:9">
-      <c r="B234" s="64"/>
-      <c r="C234" s="65"/>
-      <c r="D234" s="65"/>
-      <c r="E234" s="66"/>
-      <c r="F234" s="60"/>
-      <c r="G234" s="61"/>
-      <c r="H234" s="56"/>
-      <c r="I234" s="57"/>
-    </row>
-    <row r="235" spans="2:9">
-      <c r="B235" s="64"/>
-      <c r="C235" s="65"/>
-      <c r="D235" s="65"/>
-      <c r="E235" s="66"/>
-      <c r="F235" s="60"/>
-      <c r="G235" s="61"/>
-      <c r="H235" s="56"/>
-      <c r="I235" s="57"/>
-    </row>
-    <row r="236" spans="2:9">
-      <c r="B236" s="64"/>
-      <c r="C236" s="65"/>
-      <c r="D236" s="65"/>
-      <c r="E236" s="66"/>
-      <c r="F236" s="60"/>
-      <c r="G236" s="61"/>
-      <c r="H236" s="56"/>
-      <c r="I236" s="57"/>
-    </row>
-    <row r="237" spans="2:9">
-      <c r="B237" s="64"/>
-      <c r="C237" s="65"/>
-      <c r="D237" s="65"/>
-      <c r="E237" s="66"/>
-      <c r="F237" s="60"/>
-      <c r="G237" s="61"/>
-      <c r="H237" s="56"/>
-      <c r="I237" s="57"/>
-    </row>
-    <row r="238" spans="2:9">
-      <c r="B238" s="64"/>
-      <c r="C238" s="65"/>
-      <c r="D238" s="65"/>
-      <c r="E238" s="66"/>
-      <c r="F238" s="60"/>
-      <c r="G238" s="61"/>
-      <c r="H238" s="56"/>
-      <c r="I238" s="57"/>
-    </row>
-    <row r="239" spans="2:9">
-      <c r="B239" s="64"/>
-      <c r="C239" s="65"/>
-      <c r="D239" s="65"/>
-      <c r="E239" s="66"/>
-      <c r="F239" s="60"/>
-      <c r="G239" s="61"/>
-      <c r="H239" s="56"/>
-      <c r="I239" s="57"/>
-    </row>
-    <row r="240" spans="2:9">
-      <c r="B240" s="64"/>
-      <c r="C240" s="65"/>
-      <c r="D240" s="65"/>
-      <c r="E240" s="66"/>
-      <c r="F240" s="60"/>
-      <c r="G240" s="61"/>
-      <c r="H240" s="56"/>
-      <c r="I240" s="57"/>
-    </row>
-    <row r="241" spans="2:9">
-      <c r="B241" s="64"/>
-      <c r="C241" s="65"/>
-      <c r="D241" s="65"/>
-      <c r="E241" s="66"/>
-      <c r="F241" s="60"/>
-      <c r="G241" s="61"/>
-      <c r="H241" s="56"/>
-      <c r="I241" s="57"/>
-    </row>
-    <row r="242" spans="2:9">
-      <c r="B242" s="64"/>
-      <c r="C242" s="65"/>
-      <c r="D242" s="65"/>
-      <c r="E242" s="66"/>
-      <c r="F242" s="60"/>
-      <c r="G242" s="61"/>
-      <c r="H242" s="56"/>
-      <c r="I242" s="57"/>
-    </row>
-    <row r="243" spans="2:9">
-      <c r="B243" s="64"/>
-      <c r="C243" s="65"/>
-      <c r="D243" s="65"/>
-      <c r="E243" s="66"/>
-      <c r="F243" s="60"/>
-      <c r="G243" s="61"/>
-      <c r="H243" s="56"/>
-      <c r="I243" s="57"/>
-    </row>
-    <row r="244" spans="2:9">
-      <c r="B244" s="64"/>
-      <c r="C244" s="65"/>
-      <c r="D244" s="65"/>
-      <c r="E244" s="66"/>
-      <c r="F244" s="60"/>
-      <c r="G244" s="61"/>
-      <c r="H244" s="56"/>
-      <c r="I244" s="57"/>
-    </row>
-    <row r="245" spans="2:9">
-      <c r="B245" s="64"/>
-      <c r="C245" s="65"/>
-      <c r="D245" s="65"/>
-      <c r="E245" s="66"/>
-      <c r="F245" s="60"/>
-      <c r="G245" s="61"/>
-      <c r="H245" s="56"/>
-      <c r="I245" s="57"/>
-    </row>
-    <row r="246" spans="2:9">
-      <c r="B246" s="64"/>
-      <c r="C246" s="65"/>
-      <c r="D246" s="65"/>
-      <c r="E246" s="66"/>
-      <c r="F246" s="60"/>
-      <c r="G246" s="61"/>
-      <c r="H246" s="56"/>
-      <c r="I246" s="57"/>
-    </row>
-    <row r="247" spans="2:9">
-      <c r="B247" s="64"/>
-      <c r="C247" s="65"/>
-      <c r="D247" s="65"/>
-      <c r="E247" s="66"/>
-      <c r="F247" s="60"/>
-      <c r="G247" s="61"/>
-      <c r="H247" s="56"/>
-      <c r="I247" s="57"/>
-    </row>
-    <row r="248" spans="2:9">
-      <c r="B248" s="64"/>
-      <c r="C248" s="65"/>
-      <c r="D248" s="65"/>
-      <c r="E248" s="66"/>
-      <c r="F248" s="60"/>
-      <c r="G248" s="61"/>
-      <c r="H248" s="56"/>
-      <c r="I248" s="57"/>
-    </row>
-    <row r="249" spans="2:9">
-      <c r="B249" s="64"/>
-      <c r="C249" s="65"/>
-      <c r="D249" s="65"/>
-      <c r="E249" s="66"/>
-      <c r="F249" s="60"/>
-      <c r="G249" s="61"/>
-      <c r="H249" s="56"/>
-      <c r="I249" s="57"/>
-    </row>
-    <row r="250" spans="2:9">
-      <c r="B250" s="64"/>
-      <c r="C250" s="65"/>
-      <c r="D250" s="65"/>
-      <c r="E250" s="66"/>
-      <c r="F250" s="60"/>
-      <c r="G250" s="61"/>
-      <c r="H250" s="56"/>
-      <c r="I250" s="57"/>
-    </row>
-    <row r="251" spans="2:9">
-      <c r="B251" s="64"/>
-      <c r="C251" s="65"/>
-      <c r="D251" s="65"/>
-      <c r="E251" s="66"/>
-      <c r="F251" s="60"/>
-      <c r="G251" s="61"/>
-      <c r="H251" s="56"/>
-      <c r="I251" s="57"/>
-    </row>
-    <row r="252" spans="2:9">
-      <c r="B252" s="64"/>
-      <c r="C252" s="65"/>
-      <c r="D252" s="65"/>
-      <c r="E252" s="66"/>
-      <c r="F252" s="60"/>
-      <c r="G252" s="61"/>
-      <c r="H252" s="56"/>
-      <c r="I252" s="57"/>
-    </row>
-    <row r="253" spans="2:9">
-      <c r="B253" s="64"/>
-      <c r="C253" s="65"/>
-      <c r="D253" s="65"/>
-      <c r="E253" s="66"/>
-      <c r="F253" s="60"/>
-      <c r="G253" s="61"/>
-      <c r="H253" s="56"/>
-      <c r="I253" s="57"/>
-    </row>
-    <row r="254" spans="2:9">
-      <c r="B254" s="64"/>
-      <c r="C254" s="65"/>
-      <c r="D254" s="65"/>
-      <c r="E254" s="66"/>
-      <c r="F254" s="60"/>
-      <c r="G254" s="61"/>
-      <c r="H254" s="56"/>
-      <c r="I254" s="57"/>
-    </row>
-    <row r="255" spans="2:9">
-      <c r="B255" s="64"/>
-      <c r="C255" s="65"/>
-      <c r="D255" s="65"/>
-      <c r="E255" s="66"/>
-      <c r="F255" s="60"/>
-      <c r="G255" s="61"/>
-      <c r="H255" s="56"/>
-      <c r="I255" s="57"/>
-    </row>
-    <row r="256" spans="2:9">
-      <c r="B256" s="64"/>
-      <c r="C256" s="65"/>
-      <c r="D256" s="65"/>
-      <c r="E256" s="66"/>
-      <c r="F256" s="60"/>
-      <c r="G256" s="61"/>
-      <c r="H256" s="56"/>
-      <c r="I256" s="57"/>
-    </row>
-    <row r="257" spans="2:9">
-      <c r="B257" s="64"/>
-      <c r="C257" s="65"/>
-      <c r="D257" s="65"/>
-      <c r="E257" s="66"/>
-      <c r="F257" s="60"/>
-      <c r="G257" s="61"/>
-      <c r="H257" s="56"/>
-      <c r="I257" s="57"/>
-    </row>
-    <row r="258" spans="2:9">
-      <c r="B258" s="64"/>
-      <c r="C258" s="65"/>
-      <c r="D258" s="65"/>
-      <c r="E258" s="66"/>
-      <c r="F258" s="60"/>
-      <c r="G258" s="61"/>
-      <c r="H258" s="56"/>
-      <c r="I258" s="57"/>
-    </row>
-    <row r="259" spans="2:9">
-      <c r="B259" s="64"/>
-      <c r="C259" s="65"/>
-      <c r="D259" s="65"/>
-      <c r="E259" s="66"/>
-      <c r="F259" s="60"/>
-      <c r="G259" s="61"/>
-      <c r="H259" s="56"/>
-      <c r="I259" s="57"/>
-    </row>
-    <row r="260" spans="2:9">
-      <c r="B260" s="64"/>
-      <c r="C260" s="65"/>
-      <c r="D260" s="65"/>
-      <c r="E260" s="66"/>
-      <c r="F260" s="60"/>
-      <c r="G260" s="61"/>
-      <c r="H260" s="56"/>
-      <c r="I260" s="57"/>
-    </row>
-    <row r="261" spans="2:9">
-      <c r="B261" s="64"/>
-      <c r="C261" s="65"/>
-      <c r="D261" s="65"/>
-      <c r="E261" s="66"/>
-      <c r="F261" s="60"/>
-      <c r="G261" s="61"/>
-      <c r="H261" s="56"/>
-      <c r="I261" s="57"/>
-    </row>
-    <row r="262" spans="2:9">
-      <c r="B262" s="64"/>
-      <c r="C262" s="65"/>
-      <c r="D262" s="65"/>
-      <c r="E262" s="66"/>
-      <c r="F262" s="60"/>
-      <c r="G262" s="61"/>
-      <c r="H262" s="56"/>
-      <c r="I262" s="57"/>
-    </row>
-    <row r="263" spans="2:9">
-      <c r="B263" s="64"/>
-      <c r="C263" s="65"/>
-      <c r="D263" s="65"/>
-      <c r="E263" s="66"/>
-      <c r="F263" s="60"/>
-      <c r="G263" s="61"/>
-      <c r="H263" s="56"/>
-      <c r="I263" s="57"/>
-    </row>
-    <row r="264" spans="2:9">
-      <c r="B264" s="64"/>
-      <c r="C264" s="65"/>
-      <c r="D264" s="65"/>
-      <c r="E264" s="66"/>
-      <c r="F264" s="60"/>
-      <c r="G264" s="61"/>
-      <c r="H264" s="56"/>
-      <c r="I264" s="57"/>
-    </row>
-    <row r="265" spans="2:9">
-      <c r="B265" s="64"/>
-      <c r="C265" s="65"/>
-      <c r="D265" s="65"/>
-      <c r="E265" s="66"/>
-      <c r="F265" s="60"/>
-      <c r="G265" s="61"/>
-      <c r="H265" s="56"/>
-      <c r="I265" s="57"/>
-    </row>
-    <row r="266" spans="2:9">
-      <c r="B266" s="64"/>
-      <c r="C266" s="65"/>
-      <c r="D266" s="65"/>
-      <c r="E266" s="66"/>
-      <c r="F266" s="60"/>
-      <c r="G266" s="61"/>
-      <c r="H266" s="56"/>
-      <c r="I266" s="57"/>
-    </row>
-    <row r="267" spans="2:9">
-      <c r="B267" s="64"/>
-      <c r="C267" s="65"/>
-      <c r="D267" s="65"/>
-      <c r="E267" s="66"/>
-      <c r="F267" s="60"/>
-      <c r="G267" s="61"/>
-      <c r="H267" s="56"/>
-      <c r="I267" s="57"/>
-    </row>
-    <row r="268" spans="2:9">
-      <c r="B268" s="64"/>
-      <c r="C268" s="65"/>
-      <c r="D268" s="65"/>
-      <c r="E268" s="66"/>
-      <c r="F268" s="60"/>
-      <c r="G268" s="61"/>
-      <c r="H268" s="56"/>
-      <c r="I268" s="57"/>
-    </row>
-    <row r="269" spans="2:9">
-      <c r="B269" s="64"/>
-      <c r="C269" s="65"/>
-      <c r="D269" s="65"/>
-      <c r="E269" s="66"/>
-      <c r="F269" s="60"/>
-      <c r="G269" s="61"/>
-      <c r="H269" s="56"/>
-      <c r="I269" s="57"/>
-    </row>
-    <row r="270" spans="2:9">
-      <c r="B270" s="64"/>
-      <c r="C270" s="65"/>
-      <c r="D270" s="65"/>
-      <c r="E270" s="66"/>
-      <c r="F270" s="60"/>
-      <c r="G270" s="61"/>
-      <c r="H270" s="56"/>
-      <c r="I270" s="57"/>
-    </row>
-    <row r="271" spans="2:9">
-      <c r="B271" s="64"/>
-      <c r="C271" s="65"/>
-      <c r="D271" s="65"/>
-      <c r="E271" s="66"/>
-      <c r="F271" s="60"/>
-      <c r="G271" s="61"/>
-      <c r="H271" s="56"/>
-      <c r="I271" s="57"/>
-    </row>
-    <row r="272" spans="2:9">
-      <c r="B272" s="64"/>
-      <c r="C272" s="65"/>
-      <c r="D272" s="65"/>
-      <c r="E272" s="66"/>
-      <c r="F272" s="60"/>
-      <c r="G272" s="61"/>
-      <c r="H272" s="56"/>
-      <c r="I272" s="57"/>
-    </row>
-    <row r="273" spans="2:9">
-      <c r="B273" s="64"/>
-      <c r="C273" s="65"/>
-      <c r="D273" s="65"/>
-      <c r="E273" s="66"/>
-      <c r="F273" s="60"/>
-      <c r="G273" s="61"/>
-      <c r="H273" s="56"/>
-      <c r="I273" s="57"/>
-    </row>
-    <row r="274" spans="2:9">
-      <c r="B274" s="64"/>
-      <c r="C274" s="65"/>
-      <c r="D274" s="65"/>
-      <c r="E274" s="66"/>
-      <c r="F274" s="60"/>
-      <c r="G274" s="61"/>
-      <c r="H274" s="56"/>
-      <c r="I274" s="57"/>
-    </row>
-    <row r="275" spans="2:9">
-      <c r="B275" s="64"/>
-      <c r="C275" s="65"/>
-      <c r="D275" s="65"/>
-      <c r="E275" s="66"/>
-      <c r="F275" s="60"/>
-      <c r="G275" s="61"/>
-      <c r="H275" s="56"/>
-      <c r="I275" s="57"/>
-    </row>
-    <row r="276" spans="2:9">
-      <c r="B276" s="64"/>
-      <c r="C276" s="65"/>
-      <c r="D276" s="65"/>
-      <c r="E276" s="66"/>
-      <c r="F276" s="60"/>
-      <c r="G276" s="61"/>
-      <c r="H276" s="56"/>
-      <c r="I276" s="57"/>
-    </row>
-    <row r="277" spans="2:9">
-      <c r="B277" s="64"/>
-      <c r="C277" s="65"/>
-      <c r="D277" s="65"/>
-      <c r="E277" s="66"/>
-      <c r="F277" s="60"/>
-      <c r="G277" s="61"/>
-      <c r="H277" s="56"/>
-      <c r="I277" s="57"/>
-    </row>
-    <row r="278" spans="2:9">
-      <c r="B278" s="64"/>
-      <c r="C278" s="65"/>
-      <c r="D278" s="65"/>
-      <c r="E278" s="66"/>
-      <c r="F278" s="60"/>
-      <c r="G278" s="61"/>
-      <c r="H278" s="56"/>
-      <c r="I278" s="57"/>
-    </row>
-    <row r="279" spans="2:9">
-      <c r="B279" s="64"/>
-      <c r="C279" s="65"/>
-      <c r="D279" s="65"/>
-      <c r="E279" s="66"/>
-      <c r="F279" s="60"/>
-      <c r="G279" s="61"/>
-      <c r="H279" s="56"/>
-      <c r="I279" s="57"/>
-    </row>
-    <row r="280" spans="2:9">
-      <c r="B280" s="64"/>
-      <c r="C280" s="65"/>
-      <c r="D280" s="65"/>
-      <c r="E280" s="66"/>
-      <c r="F280" s="60"/>
-      <c r="G280" s="61"/>
-      <c r="H280" s="56"/>
-      <c r="I280" s="57"/>
-    </row>
-    <row r="281" spans="2:9">
-      <c r="B281" s="64"/>
-      <c r="C281" s="65"/>
-      <c r="D281" s="65"/>
-      <c r="E281" s="66"/>
-      <c r="F281" s="60"/>
-      <c r="G281" s="61"/>
-      <c r="H281" s="56"/>
-      <c r="I281" s="57"/>
-    </row>
-    <row r="282" spans="2:9">
-      <c r="B282" s="64"/>
-      <c r="C282" s="65"/>
-      <c r="D282" s="65"/>
-      <c r="E282" s="66"/>
-      <c r="F282" s="60"/>
-      <c r="G282" s="61"/>
-      <c r="H282" s="56"/>
-      <c r="I282" s="57"/>
-    </row>
-    <row r="283" spans="2:9">
-      <c r="B283" s="64"/>
-      <c r="C283" s="65"/>
-      <c r="D283" s="65"/>
-      <c r="E283" s="66"/>
-      <c r="F283" s="60"/>
-      <c r="G283" s="61"/>
-      <c r="H283" s="56"/>
-      <c r="I283" s="57"/>
-    </row>
-    <row r="284" spans="2:9">
-      <c r="B284" s="64"/>
-      <c r="C284" s="65"/>
-      <c r="D284" s="65"/>
-      <c r="E284" s="66"/>
-      <c r="F284" s="60"/>
-      <c r="G284" s="61"/>
-      <c r="H284" s="56"/>
-      <c r="I284" s="57"/>
-    </row>
-    <row r="285" spans="2:9">
-      <c r="B285" s="64"/>
-      <c r="C285" s="65"/>
-      <c r="D285" s="65"/>
-      <c r="E285" s="66"/>
-      <c r="F285" s="60"/>
-      <c r="G285" s="61"/>
-      <c r="H285" s="56"/>
-      <c r="I285" s="57"/>
-    </row>
-    <row r="286" spans="2:9">
-      <c r="B286" s="64"/>
-      <c r="C286" s="65"/>
-      <c r="D286" s="65"/>
-      <c r="E286" s="66"/>
-      <c r="F286" s="60"/>
-      <c r="G286" s="61"/>
-      <c r="H286" s="56"/>
-      <c r="I286" s="57"/>
-    </row>
-    <row r="287" spans="2:9">
-      <c r="B287" s="64"/>
-      <c r="C287" s="65"/>
-      <c r="D287" s="65"/>
-      <c r="E287" s="66"/>
-      <c r="F287" s="60"/>
-      <c r="G287" s="61"/>
-      <c r="H287" s="56"/>
-      <c r="I287" s="57"/>
-    </row>
-    <row r="288" spans="2:9">
-      <c r="B288" s="64"/>
-      <c r="C288" s="65"/>
-      <c r="D288" s="65"/>
-      <c r="E288" s="66"/>
-      <c r="F288" s="60"/>
-      <c r="G288" s="61"/>
-      <c r="H288" s="56"/>
-      <c r="I288" s="57"/>
-    </row>
-    <row r="289" spans="2:9">
-      <c r="B289" s="64"/>
-      <c r="C289" s="65"/>
-      <c r="D289" s="65"/>
-      <c r="E289" s="66"/>
-      <c r="F289" s="60"/>
-      <c r="G289" s="61"/>
-      <c r="H289" s="56"/>
-      <c r="I289" s="57"/>
-    </row>
-    <row r="290" spans="2:9">
-      <c r="B290" s="64"/>
-      <c r="C290" s="65"/>
-      <c r="D290" s="65"/>
-      <c r="E290" s="66"/>
-      <c r="F290" s="60"/>
-      <c r="G290" s="61"/>
-      <c r="H290" s="56"/>
-      <c r="I290" s="57"/>
-    </row>
-    <row r="291" spans="2:9">
-      <c r="B291" s="64"/>
-      <c r="C291" s="65"/>
-      <c r="D291" s="65"/>
-      <c r="E291" s="66"/>
-      <c r="F291" s="60"/>
-      <c r="G291" s="61"/>
-      <c r="H291" s="56"/>
-      <c r="I291" s="57"/>
-    </row>
-    <row r="292" spans="2:9">
-      <c r="B292" s="64"/>
-      <c r="C292" s="65"/>
-      <c r="D292" s="65"/>
-      <c r="E292" s="66"/>
-      <c r="F292" s="60"/>
-      <c r="G292" s="61"/>
-      <c r="H292" s="56"/>
-      <c r="I292" s="57"/>
-    </row>
-    <row r="293" spans="2:9">
-      <c r="B293" s="64"/>
-      <c r="C293" s="65"/>
-      <c r="D293" s="65"/>
-      <c r="E293" s="66"/>
-      <c r="F293" s="60"/>
-      <c r="G293" s="61"/>
-      <c r="H293" s="56"/>
-      <c r="I293" s="57"/>
-    </row>
-    <row r="294" spans="2:9">
-      <c r="B294" s="64"/>
-      <c r="C294" s="65"/>
-      <c r="D294" s="65"/>
-      <c r="E294" s="66"/>
-      <c r="F294" s="60"/>
-      <c r="G294" s="61"/>
-      <c r="H294" s="56"/>
-      <c r="I294" s="57"/>
-    </row>
-    <row r="295" spans="2:9">
-      <c r="B295" s="64"/>
-      <c r="C295" s="65"/>
-      <c r="D295" s="65"/>
-      <c r="E295" s="66"/>
-      <c r="F295" s="60"/>
-      <c r="G295" s="61"/>
-      <c r="H295" s="56"/>
-      <c r="I295" s="57"/>
-    </row>
-    <row r="296" spans="2:9">
-      <c r="B296" s="64"/>
-      <c r="C296" s="65"/>
-      <c r="D296" s="65"/>
-      <c r="E296" s="66"/>
-      <c r="F296" s="60"/>
-      <c r="G296" s="61"/>
-      <c r="H296" s="56"/>
-      <c r="I296" s="57"/>
-    </row>
-    <row r="297" spans="2:9">
-      <c r="B297" s="64"/>
-      <c r="C297" s="65"/>
-      <c r="D297" s="65"/>
-      <c r="E297" s="66"/>
-      <c r="F297" s="60"/>
-      <c r="G297" s="61"/>
-      <c r="H297" s="56"/>
-      <c r="I297" s="57"/>
-    </row>
-    <row r="298" spans="2:9">
-      <c r="B298" s="64"/>
-      <c r="C298" s="65"/>
-      <c r="D298" s="65"/>
-      <c r="E298" s="66"/>
-      <c r="F298" s="60"/>
-      <c r="G298" s="61"/>
-      <c r="H298" s="56"/>
-      <c r="I298" s="57"/>
-    </row>
-    <row r="299" spans="2:9">
-      <c r="B299" s="64"/>
-      <c r="C299" s="65"/>
-      <c r="D299" s="65"/>
-      <c r="E299" s="66"/>
-      <c r="F299" s="60"/>
-      <c r="G299" s="61"/>
-      <c r="H299" s="56"/>
-      <c r="I299" s="57"/>
-    </row>
-    <row r="300" spans="2:9">
-      <c r="B300" s="64"/>
-      <c r="C300" s="65"/>
-      <c r="D300" s="65"/>
-      <c r="E300" s="66"/>
-      <c r="F300" s="60"/>
-      <c r="G300" s="61"/>
-      <c r="H300" s="56"/>
-      <c r="I300" s="57"/>
-    </row>
-    <row r="301" spans="2:9">
-      <c r="B301" s="64"/>
-      <c r="C301" s="65"/>
-      <c r="D301" s="65"/>
-      <c r="E301" s="66"/>
-      <c r="F301" s="60"/>
-      <c r="G301" s="61"/>
-      <c r="H301" s="56"/>
-      <c r="I301" s="57"/>
-    </row>
-    <row r="302" spans="2:9">
-      <c r="B302" s="64"/>
-      <c r="C302" s="65"/>
-      <c r="D302" s="65"/>
-      <c r="E302" s="66"/>
-      <c r="F302" s="60"/>
-      <c r="G302" s="61"/>
-      <c r="H302" s="56"/>
-      <c r="I302" s="57"/>
-    </row>
-    <row r="303" spans="2:9">
-      <c r="B303" s="64"/>
-      <c r="C303" s="65"/>
-      <c r="D303" s="65"/>
-      <c r="E303" s="66"/>
-      <c r="F303" s="60"/>
-      <c r="G303" s="61"/>
-      <c r="H303" s="56"/>
-      <c r="I303" s="57"/>
-    </row>
-    <row r="304" spans="2:9">
-      <c r="B304" s="64"/>
-      <c r="C304" s="65"/>
-      <c r="D304" s="65"/>
-      <c r="E304" s="66"/>
-      <c r="F304" s="60"/>
-      <c r="G304" s="61"/>
-      <c r="H304" s="56"/>
-      <c r="I304" s="57"/>
-    </row>
-    <row r="305" spans="2:9">
-      <c r="B305" s="64"/>
-      <c r="C305" s="65"/>
-      <c r="D305" s="65"/>
-      <c r="E305" s="66"/>
-      <c r="F305" s="60"/>
-      <c r="G305" s="61"/>
-      <c r="H305" s="56"/>
-      <c r="I305" s="57"/>
-    </row>
-    <row r="306" spans="2:9">
-      <c r="B306" s="64"/>
-      <c r="C306" s="65"/>
-      <c r="D306" s="65"/>
-      <c r="E306" s="66"/>
-      <c r="F306" s="60"/>
-      <c r="G306" s="61"/>
-      <c r="H306" s="56"/>
-      <c r="I306" s="57"/>
-    </row>
-    <row r="307" spans="2:9">
-      <c r="B307" s="64"/>
-      <c r="C307" s="65"/>
-      <c r="D307" s="65"/>
-      <c r="E307" s="66"/>
-      <c r="F307" s="60"/>
-      <c r="G307" s="61"/>
-      <c r="H307" s="56"/>
-      <c r="I307" s="57"/>
-    </row>
-    <row r="308" spans="2:9">
-      <c r="B308" s="64"/>
-      <c r="C308" s="65"/>
-      <c r="D308" s="65"/>
-      <c r="E308" s="66"/>
-      <c r="F308" s="60"/>
-      <c r="G308" s="61"/>
-      <c r="H308" s="56"/>
-      <c r="I308" s="57"/>
-    </row>
-    <row r="309" spans="2:9">
-      <c r="B309" s="64"/>
-      <c r="C309" s="65"/>
-      <c r="D309" s="65"/>
-      <c r="E309" s="66"/>
-      <c r="F309" s="60"/>
-      <c r="G309" s="61"/>
-      <c r="H309" s="56"/>
-      <c r="I309" s="57"/>
-    </row>
-    <row r="310" spans="2:9">
-      <c r="B310" s="64"/>
-      <c r="C310" s="65"/>
-      <c r="D310" s="65"/>
-      <c r="E310" s="66"/>
-      <c r="F310" s="60"/>
-      <c r="G310" s="61"/>
-      <c r="H310" s="56"/>
-      <c r="I310" s="57"/>
-    </row>
-    <row r="311" spans="2:9">
-      <c r="B311" s="64"/>
-      <c r="C311" s="65"/>
-      <c r="D311" s="65"/>
-      <c r="E311" s="66"/>
-      <c r="F311" s="60"/>
-      <c r="G311" s="61"/>
-      <c r="H311" s="56"/>
-      <c r="I311" s="57"/>
-    </row>
-    <row r="312" spans="2:9">
-      <c r="B312" s="64"/>
-      <c r="C312" s="65"/>
-      <c r="D312" s="65"/>
-      <c r="E312" s="66"/>
-      <c r="F312" s="60"/>
-      <c r="G312" s="61"/>
-      <c r="H312" s="56"/>
-      <c r="I312" s="57"/>
-    </row>
-    <row r="313" spans="2:9">
-      <c r="B313" s="64"/>
-      <c r="C313" s="65"/>
-      <c r="D313" s="65"/>
-      <c r="E313" s="66"/>
-      <c r="F313" s="60"/>
-      <c r="G313" s="61"/>
-      <c r="H313" s="56"/>
-      <c r="I313" s="57"/>
-    </row>
-    <row r="314" spans="2:9">
-      <c r="B314" s="64"/>
-      <c r="C314" s="65"/>
-      <c r="D314" s="65"/>
-      <c r="E314" s="66"/>
-      <c r="F314" s="60"/>
-      <c r="G314" s="61"/>
-      <c r="H314" s="56"/>
-      <c r="I314" s="57"/>
-    </row>
-    <row r="315" spans="2:9">
-      <c r="B315" s="64"/>
-      <c r="C315" s="65"/>
-      <c r="D315" s="65"/>
-      <c r="E315" s="66"/>
-      <c r="F315" s="60"/>
-      <c r="G315" s="61"/>
-      <c r="H315" s="56"/>
-      <c r="I315" s="57"/>
-    </row>
-    <row r="316" spans="2:9">
-      <c r="B316" s="64"/>
-      <c r="C316" s="65"/>
-      <c r="D316" s="65"/>
-      <c r="E316" s="66"/>
-      <c r="F316" s="60"/>
-      <c r="G316" s="61"/>
-      <c r="H316" s="56"/>
-      <c r="I316" s="57"/>
-    </row>
-    <row r="317" spans="2:9">
-      <c r="B317" s="64"/>
-      <c r="C317" s="65"/>
-      <c r="D317" s="65"/>
-      <c r="E317" s="66"/>
-      <c r="F317" s="60"/>
-      <c r="G317" s="61"/>
-      <c r="H317" s="56"/>
-      <c r="I317" s="57"/>
-    </row>
-    <row r="318" spans="2:9">
-      <c r="B318" s="64"/>
-      <c r="C318" s="65"/>
-      <c r="D318" s="65"/>
-      <c r="E318" s="66"/>
-      <c r="F318" s="60"/>
-      <c r="G318" s="61"/>
-      <c r="H318" s="56"/>
-      <c r="I318" s="57"/>
-    </row>
-    <row r="319" spans="2:9">
-      <c r="B319" s="64"/>
-      <c r="C319" s="65"/>
-      <c r="D319" s="65"/>
-      <c r="E319" s="66"/>
-      <c r="F319" s="60"/>
-      <c r="G319" s="61"/>
-      <c r="H319" s="56"/>
-      <c r="I319" s="57"/>
-    </row>
-    <row r="320" spans="2:9">
-      <c r="B320" s="64"/>
-      <c r="C320" s="65"/>
-      <c r="D320" s="65"/>
-      <c r="E320" s="66"/>
-      <c r="F320" s="60"/>
-      <c r="G320" s="61"/>
-      <c r="H320" s="56"/>
-      <c r="I320" s="57"/>
-    </row>
-    <row r="321" spans="2:9">
-      <c r="B321" s="64"/>
-      <c r="C321" s="65"/>
-      <c r="D321" s="65"/>
-      <c r="E321" s="66"/>
-      <c r="F321" s="60"/>
-      <c r="G321" s="61"/>
-      <c r="H321" s="56"/>
-      <c r="I321" s="57"/>
-    </row>
-    <row r="322" spans="2:9">
-      <c r="B322" s="64"/>
-      <c r="C322" s="65"/>
-      <c r="D322" s="65"/>
-      <c r="E322" s="66"/>
-      <c r="F322" s="60"/>
-      <c r="G322" s="61"/>
-      <c r="H322" s="56"/>
-      <c r="I322" s="57"/>
-    </row>
-    <row r="323" spans="2:9">
-      <c r="B323" s="64"/>
-      <c r="C323" s="65"/>
-      <c r="D323" s="65"/>
-      <c r="E323" s="66"/>
-      <c r="F323" s="60"/>
-      <c r="G323" s="61"/>
-      <c r="H323" s="56"/>
-      <c r="I323" s="57"/>
-    </row>
-    <row r="324" spans="2:9">
-      <c r="B324" s="64"/>
-      <c r="C324" s="65"/>
-      <c r="D324" s="65"/>
-      <c r="E324" s="66"/>
-      <c r="F324" s="60"/>
-      <c r="G324" s="61"/>
-      <c r="H324" s="56"/>
-      <c r="I324" s="57"/>
-    </row>
-    <row r="325" spans="2:9">
-      <c r="B325" s="64"/>
-      <c r="C325" s="65"/>
-      <c r="D325" s="65"/>
-      <c r="E325" s="66"/>
-      <c r="F325" s="60"/>
-      <c r="G325" s="61"/>
-      <c r="H325" s="56"/>
-      <c r="I325" s="57"/>
-    </row>
-    <row r="326" spans="2:9">
-      <c r="B326" s="64"/>
-      <c r="C326" s="65"/>
-      <c r="D326" s="65"/>
-      <c r="E326" s="66"/>
-      <c r="F326" s="60"/>
-      <c r="G326" s="61"/>
-      <c r="H326" s="56"/>
-      <c r="I326" s="57"/>
-    </row>
-    <row r="327" spans="2:9">
-      <c r="B327" s="64"/>
-      <c r="C327" s="65"/>
-      <c r="D327" s="65"/>
-      <c r="E327" s="66"/>
-      <c r="F327" s="60"/>
-      <c r="G327" s="61"/>
-      <c r="H327" s="56"/>
-      <c r="I327" s="57"/>
-    </row>
-    <row r="328" spans="2:9">
-      <c r="B328" s="64"/>
-      <c r="C328" s="65"/>
-      <c r="D328" s="65"/>
-      <c r="E328" s="66"/>
-      <c r="F328" s="60"/>
-      <c r="G328" s="61"/>
-      <c r="H328" s="56"/>
-      <c r="I328" s="57"/>
-    </row>
-    <row r="329" spans="2:9">
-      <c r="B329" s="64"/>
-      <c r="C329" s="65"/>
-      <c r="D329" s="65"/>
-      <c r="E329" s="66"/>
-      <c r="F329" s="60"/>
-      <c r="G329" s="61"/>
-      <c r="H329" s="56"/>
-      <c r="I329" s="57"/>
-    </row>
-    <row r="330" spans="2:9">
-      <c r="B330" s="64"/>
-      <c r="C330" s="65"/>
-      <c r="D330" s="65"/>
-      <c r="E330" s="66"/>
-      <c r="F330" s="60"/>
-      <c r="G330" s="61"/>
-      <c r="H330" s="56"/>
-      <c r="I330" s="57"/>
-    </row>
-    <row r="331" spans="2:9">
-      <c r="B331" s="64"/>
-      <c r="C331" s="65"/>
-      <c r="D331" s="65"/>
-      <c r="E331" s="66"/>
-      <c r="F331" s="60"/>
-      <c r="G331" s="61"/>
-      <c r="H331" s="56"/>
-      <c r="I331" s="57"/>
-    </row>
-    <row r="332" spans="2:9">
-      <c r="B332" s="64"/>
-      <c r="C332" s="65"/>
-      <c r="D332" s="65"/>
-      <c r="E332" s="66"/>
-      <c r="F332" s="60"/>
-      <c r="G332" s="61"/>
-      <c r="H332" s="56"/>
-      <c r="I332" s="57"/>
-    </row>
-    <row r="333" spans="2:9">
-      <c r="B333" s="64"/>
-      <c r="C333" s="65"/>
-      <c r="D333" s="65"/>
-      <c r="E333" s="66"/>
-      <c r="F333" s="60"/>
-      <c r="G333" s="61"/>
-      <c r="H333" s="56"/>
-      <c r="I333" s="57"/>
-    </row>
-    <row r="334" spans="2:9">
-      <c r="B334" s="64"/>
-      <c r="C334" s="65"/>
-      <c r="D334" s="65"/>
-      <c r="E334" s="66"/>
-      <c r="F334" s="60"/>
-      <c r="G334" s="61"/>
-      <c r="H334" s="56"/>
-      <c r="I334" s="57"/>
-    </row>
-    <row r="335" spans="2:9">
-      <c r="B335" s="64"/>
-      <c r="C335" s="65"/>
-      <c r="D335" s="65"/>
-      <c r="E335" s="66"/>
-      <c r="F335" s="60"/>
-      <c r="G335" s="61"/>
-      <c r="H335" s="56"/>
-      <c r="I335" s="57"/>
-    </row>
-    <row r="336" spans="2:9">
-      <c r="B336" s="64"/>
-      <c r="C336" s="65"/>
-      <c r="D336" s="65"/>
-      <c r="E336" s="66"/>
-      <c r="F336" s="60"/>
-      <c r="G336" s="61"/>
-      <c r="H336" s="56"/>
-      <c r="I336" s="57"/>
-    </row>
-    <row r="337" spans="2:9">
-      <c r="B337" s="64"/>
-      <c r="C337" s="65"/>
-      <c r="D337" s="65"/>
-      <c r="E337" s="66"/>
-      <c r="F337" s="60"/>
-      <c r="G337" s="61"/>
-      <c r="H337" s="56"/>
-      <c r="I337" s="57"/>
-    </row>
-    <row r="338" spans="2:9">
-      <c r="B338" s="67"/>
-      <c r="C338" s="65"/>
-      <c r="D338" s="65"/>
-      <c r="E338" s="66"/>
-      <c r="F338" s="60"/>
-      <c r="G338" s="61"/>
-      <c r="H338" s="56"/>
-      <c r="I338" s="57"/>
-    </row>
-    <row r="339" spans="2:9">
-      <c r="B339" s="67"/>
-      <c r="C339" s="65"/>
-      <c r="D339" s="65"/>
-      <c r="E339" s="66"/>
-      <c r="F339" s="61"/>
-      <c r="G339" s="61"/>
-      <c r="H339" s="56"/>
-      <c r="I339" s="57"/>
-    </row>
-    <row r="340" spans="2:9">
-      <c r="B340" s="67"/>
-      <c r="C340" s="65"/>
-      <c r="D340" s="65"/>
-      <c r="E340" s="66"/>
-      <c r="F340" s="60"/>
-      <c r="G340" s="61"/>
-      <c r="H340" s="56"/>
-      <c r="I340" s="57"/>
-    </row>
-    <row r="341" spans="2:9">
-      <c r="B341" s="67"/>
-      <c r="C341" s="65"/>
-      <c r="D341" s="65"/>
-      <c r="E341" s="66"/>
-      <c r="F341" s="61"/>
-      <c r="G341" s="61"/>
-      <c r="H341" s="56"/>
-      <c r="I341" s="57"/>
-    </row>
-    <row r="342" spans="2:9">
-      <c r="B342" s="68"/>
-      <c r="C342" s="65"/>
-      <c r="D342" s="65"/>
-      <c r="E342" s="66"/>
-      <c r="F342" s="60"/>
-      <c r="G342" s="60"/>
-      <c r="H342" s="60"/>
-      <c r="I342" s="60"/>
-    </row>
-    <row r="343" spans="2:9">
-      <c r="B343" s="68"/>
-      <c r="C343" s="65"/>
-      <c r="D343" s="65"/>
-      <c r="E343" s="66"/>
-      <c r="F343" s="61"/>
-      <c r="G343" s="61"/>
-      <c r="H343" s="56"/>
-      <c r="I343" s="57"/>
-    </row>
-    <row r="344" spans="2:9">
-      <c r="B344" s="68"/>
-      <c r="C344" s="65"/>
-      <c r="D344" s="65"/>
-      <c r="E344" s="66"/>
-      <c r="F344" s="60"/>
-      <c r="G344" s="61"/>
-      <c r="H344" s="56"/>
-      <c r="I344" s="57"/>
-    </row>
-    <row r="345" spans="2:9">
-      <c r="B345" s="68"/>
-      <c r="C345" s="65"/>
-      <c r="D345" s="65"/>
-      <c r="E345" s="66"/>
-      <c r="F345" s="61"/>
-      <c r="G345" s="61"/>
-      <c r="H345" s="56"/>
-      <c r="I345" s="57"/>
-    </row>
-    <row r="346" spans="2:9">
-      <c r="B346" s="68"/>
-      <c r="C346" s="65"/>
-      <c r="D346" s="65"/>
-      <c r="E346" s="66"/>
-      <c r="F346" s="61"/>
-      <c r="G346" s="61"/>
-      <c r="H346" s="56"/>
-      <c r="I346" s="57"/>
-    </row>
-    <row r="347" spans="2:9">
-      <c r="B347" s="68"/>
-      <c r="C347" s="65"/>
-      <c r="D347" s="65"/>
-      <c r="E347" s="66"/>
-      <c r="F347" s="60"/>
-      <c r="G347" s="61"/>
-      <c r="H347" s="56"/>
-      <c r="I347" s="57"/>
-    </row>
-    <row r="348" spans="2:9">
-      <c r="B348" s="68"/>
-      <c r="C348" s="65"/>
-      <c r="D348" s="65"/>
-      <c r="E348" s="66"/>
-      <c r="F348" s="61"/>
-      <c r="G348" s="61"/>
-      <c r="H348" s="56"/>
-      <c r="I348" s="57"/>
-    </row>
-    <row r="349" spans="2:9">
-      <c r="B349" s="68"/>
-      <c r="C349" s="65"/>
-      <c r="D349" s="65"/>
-      <c r="E349" s="66"/>
-      <c r="F349" s="60"/>
-      <c r="G349" s="61"/>
-      <c r="H349" s="56"/>
-      <c r="I349" s="57"/>
-    </row>
-    <row r="350" spans="2:9">
-      <c r="B350" s="68"/>
-      <c r="C350" s="65"/>
-      <c r="D350" s="65"/>
-      <c r="E350" s="66"/>
-      <c r="F350" s="61"/>
-      <c r="G350" s="61"/>
-      <c r="H350" s="56"/>
-      <c r="I350" s="57"/>
-    </row>
-    <row r="351" spans="2:9">
-      <c r="B351" s="68"/>
-      <c r="C351" s="65"/>
-      <c r="D351" s="65"/>
-      <c r="E351" s="66"/>
-      <c r="F351" s="60"/>
-      <c r="G351" s="61"/>
-      <c r="H351" s="56"/>
-      <c r="I351" s="57"/>
-    </row>
-    <row r="352" spans="2:9">
-      <c r="B352" s="68"/>
-      <c r="C352" s="65"/>
-      <c r="D352" s="65"/>
-      <c r="E352" s="66"/>
-      <c r="F352" s="60"/>
-      <c r="G352" s="61"/>
-      <c r="H352" s="56"/>
-      <c r="I352" s="57"/>
-    </row>
-    <row r="353" spans="2:9">
-      <c r="B353" s="68"/>
-      <c r="C353" s="65"/>
-      <c r="D353" s="65"/>
-      <c r="E353" s="66"/>
-      <c r="F353" s="60"/>
-      <c r="G353" s="61"/>
-      <c r="H353" s="56"/>
-      <c r="I353" s="57"/>
-    </row>
-    <row r="354" spans="2:9">
-      <c r="B354" s="69"/>
-      <c r="C354" s="70"/>
-      <c r="D354" s="71"/>
-      <c r="E354" s="66"/>
-      <c r="F354" s="60"/>
-      <c r="G354" s="60"/>
-      <c r="H354" s="63"/>
-      <c r="I354" s="57"/>
-    </row>
-    <row r="355" spans="2:9">
-      <c r="B355" s="69"/>
-      <c r="C355" s="70"/>
-      <c r="D355" s="71"/>
-      <c r="E355" s="66"/>
-      <c r="F355" s="60"/>
-      <c r="G355" s="60"/>
-      <c r="H355" s="63"/>
-      <c r="I355" s="57"/>
-    </row>
-    <row r="356" spans="2:9">
-      <c r="B356" s="69"/>
-      <c r="C356" s="70"/>
-      <c r="D356" s="71"/>
-      <c r="E356" s="66"/>
-      <c r="F356" s="60"/>
-      <c r="G356" s="60"/>
-      <c r="H356" s="63"/>
-      <c r="I356" s="57"/>
-    </row>
-    <row r="357" spans="2:9">
-      <c r="B357" s="69"/>
-      <c r="C357" s="70"/>
-      <c r="D357" s="71"/>
-      <c r="E357" s="66"/>
-      <c r="F357" s="60"/>
-      <c r="G357" s="60"/>
-      <c r="H357" s="63"/>
-      <c r="I357" s="57"/>
-    </row>
-    <row r="358" spans="2:9">
-      <c r="B358" s="69"/>
-      <c r="C358" s="70"/>
-      <c r="D358" s="71"/>
-      <c r="E358" s="66"/>
-      <c r="F358" s="60"/>
-      <c r="G358" s="60"/>
-      <c r="H358" s="63"/>
-      <c r="I358" s="57"/>
-    </row>
-    <row r="359" spans="2:9">
-      <c r="B359" s="69"/>
-      <c r="C359" s="70"/>
-      <c r="D359" s="71"/>
-      <c r="E359" s="66"/>
-      <c r="F359" s="60"/>
-      <c r="G359" s="60"/>
-      <c r="H359" s="63"/>
-      <c r="I359" s="57"/>
-    </row>
-    <row r="360" spans="2:9">
-      <c r="B360" s="69"/>
-      <c r="C360" s="70"/>
-      <c r="D360" s="71"/>
-      <c r="E360" s="66"/>
-      <c r="F360" s="60"/>
-      <c r="G360" s="60"/>
-      <c r="H360" s="63"/>
-      <c r="I360" s="57"/>
-    </row>
-    <row r="361" spans="2:9">
-      <c r="B361" s="69"/>
-      <c r="C361" s="70"/>
-      <c r="D361" s="71"/>
-      <c r="E361" s="66"/>
-      <c r="F361" s="60"/>
-      <c r="G361" s="60"/>
-      <c r="H361" s="63"/>
-      <c r="I361" s="57"/>
-    </row>
-    <row r="362" spans="2:9">
-      <c r="B362" s="69"/>
-      <c r="C362" s="70"/>
-      <c r="D362" s="71"/>
-      <c r="E362" s="66"/>
-      <c r="F362" s="60"/>
-      <c r="G362" s="60"/>
-      <c r="H362" s="63"/>
-      <c r="I362" s="57"/>
-    </row>
-    <row r="363" spans="2:9">
-      <c r="B363" s="69"/>
-      <c r="C363" s="70"/>
-      <c r="D363" s="71"/>
-      <c r="E363" s="66"/>
-      <c r="F363" s="60"/>
-      <c r="G363" s="61"/>
-      <c r="H363" s="63"/>
-      <c r="I363" s="57"/>
-    </row>
-    <row r="364" spans="2:9">
-      <c r="B364" s="69"/>
-      <c r="C364" s="70"/>
-      <c r="D364" s="71"/>
-      <c r="E364" s="66"/>
-      <c r="F364" s="60"/>
-      <c r="G364" s="61"/>
-      <c r="H364" s="63"/>
-      <c r="I364" s="57"/>
-    </row>
-    <row r="365" spans="2:9">
-      <c r="B365" s="69"/>
-      <c r="C365" s="70"/>
-      <c r="D365" s="71"/>
-      <c r="E365" s="66"/>
-      <c r="F365" s="61"/>
-      <c r="G365" s="61"/>
-      <c r="H365" s="63"/>
-      <c r="I365" s="57"/>
-    </row>
-    <row r="367" spans="2:9">
-      <c r="B367" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C367" s="73"/>
-      <c r="D367" s="74"/>
-      <c r="E367" s="74"/>
-      <c r="F367" s="75"/>
-      <c r="G367" s="75"/>
-      <c r="H367" s="75"/>
-      <c r="I367" s="76"/>
-    </row>
-    <row r="368" spans="2:9">
-      <c r="B368" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C368" s="78"/>
-      <c r="D368" s="79"/>
-      <c r="E368" s="79"/>
-      <c r="F368" s="80"/>
-      <c r="G368" s="80"/>
-      <c r="H368" s="80"/>
-      <c r="I368" s="81"/>
-    </row>
-    <row r="369" spans="2:9">
-      <c r="B369" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="C369" s="78"/>
-      <c r="D369" s="79"/>
-      <c r="E369" s="79"/>
-      <c r="F369" s="80"/>
-      <c r="G369" s="80"/>
-      <c r="H369" s="80"/>
-      <c r="I369" s="81"/>
-    </row>
-    <row r="370" spans="2:9">
-      <c r="B370" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="C370" s="78"/>
-      <c r="D370" s="79"/>
-      <c r="E370" s="79"/>
-      <c r="F370" s="80"/>
-      <c r="G370" s="80"/>
-      <c r="H370" s="80"/>
-      <c r="I370" s="81"/>
-    </row>
-    <row r="371" spans="2:9">
-      <c r="B371" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="C371" s="78"/>
-      <c r="D371" s="79"/>
-      <c r="E371" s="79"/>
-      <c r="F371" s="80"/>
-      <c r="G371" s="80"/>
-      <c r="H371" s="80"/>
-      <c r="I371" s="81"/>
-    </row>
-    <row r="372" spans="2:9">
-      <c r="B372" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="C372" s="78"/>
-      <c r="D372" s="79"/>
-      <c r="E372" s="79"/>
-      <c r="F372" s="80"/>
-      <c r="G372" s="80"/>
-      <c r="H372" s="80"/>
-      <c r="I372" s="81"/>
-    </row>
-    <row r="373" spans="2:9">
-      <c r="B373" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C373" s="83"/>
-      <c r="D373" s="84"/>
-      <c r="E373" s="84"/>
-      <c r="F373" s="85"/>
-      <c r="G373" s="85"/>
-      <c r="H373" s="85"/>
-      <c r="I373" s="86"/>
-    </row>
-    <row r="375" spans="2:9">
-      <c r="F375" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="G375" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="H375" s="88" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="376" spans="2:9">
-      <c r="F376" s="90" t="s">
-        <v>43</v>
-      </c>
-      <c r="G376" s="91">
-        <v>81</v>
-      </c>
-      <c r="H376" s="92">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="377" spans="2:9">
-      <c r="F377" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="G377" s="92">
-        <v>16</v>
-      </c>
-      <c r="H377" s="92">
+      <c r="H379" s="88">
         <v>29</v>
       </c>
     </row>
-    <row r="378" spans="2:9">
-      <c r="F378" s="90" t="s">
+    <row r="380" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F380" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="G378" s="92">
+      <c r="G380" s="88">
         <v>1</v>
       </c>
-      <c r="H378" s="92">
+      <c r="H380" s="88">
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="2:9">
-      <c r="F379" s="90" t="s">
+    <row r="381" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F381" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="G379" s="92">
-        <f>SUM(G376:G378)</f>
+      <c r="G381" s="88">
+        <f>SUM(G378:G380)</f>
         <v>98</v>
       </c>
-      <c r="H379" s="92">
-        <f>SUM(H376:H378)</f>
+      <c r="H381" s="88">
+        <f>SUM(H378:H380)</f>
         <v>1215</v>
       </c>
     </row>
-    <row r="380" spans="2:9">
-      <c r="F380" s="44"/>
-      <c r="G380" s="44"/>
-      <c r="H380" s="44"/>
-    </row>
-    <row r="381" spans="2:9">
-      <c r="F381" s="44"/>
-      <c r="G381" s="44"/>
-    </row>
-    <row r="382" spans="2:9">
+    <row r="382" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F382" s="44"/>
       <c r="G382" s="44"/>
-    </row>
-    <row r="383" spans="2:9">
+      <c r="H382" s="44"/>
+    </row>
+    <row r="383" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F383" s="44"/>
       <c r="G383" s="44"/>
     </row>
-    <row r="384" spans="2:9">
+    <row r="384" spans="2:9" x14ac:dyDescent="0.3">
       <c r="F384" s="44"/>
       <c r="G384" s="44"/>
     </row>
-    <row r="385" spans="6:7">
+    <row r="385" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F385" s="44"/>
       <c r="G385" s="44"/>
     </row>
+    <row r="386" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F386" s="44"/>
+      <c r="G386" s="44"/>
+    </row>
+    <row r="387" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F387" s="44"/>
+      <c r="G387" s="44"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A6:I24"/>
+  <autoFilter ref="A6:I26"/>
   <mergeCells count="2">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E26">
       <formula1>"수용,미수용,조건부 수용"</formula1>
     </dataValidation>
   </dataValidations>
